--- a/Team_data_21/TFD_extra.xlsx
+++ b/Team_data_21/TFD_extra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Neal/Documents/GitHub/3990_UGA/Team_data_21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B83207-D425-784B-BC37-8F4FE3FC94FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525966BA-939B-704A-B815-48A233C70EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="6260" windowWidth="27800" windowHeight="14780" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="6260" windowWidth="27800" windowHeight="14780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4209" uniqueCount="832">
   <si>
     <r>
       <rPr>
@@ -2468,12 +2468,6 @@
   <si>
     <t>"I think majority of us did a good job meeting, but the work in the end was not divided evenly at all. There was a lack of communication when it came very very close to the deadline and one of our members did not do there part at all nor did he notify us of the reason for this or provide any updates as to when he was going to get around to it. There was a complete lack of urgency, I feel. That had a significant impact on the confidence I have in at least one of my team members. In the end, we need to collectively communicate and delegate evenly. Also, do your part.
 "</t>
-  </si>
-  <si>
-    <t>Min Value</t>
-  </si>
-  <si>
-    <t>Max Value</t>
   </si>
   <si>
     <t>Avg (w.o. self)</t>
@@ -44053,10 +44047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U92"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q90" sqref="Q90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44070,83 +44064,182 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>812</v>
+      </c>
+      <c r="M1" t="s">
+        <v>813</v>
+      </c>
+      <c r="N1" t="s">
+        <v>814</v>
       </c>
       <c r="O1" t="s">
-        <v>812</v>
-      </c>
-      <c r="P1" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>0.6</v>
+        <v>815</v>
+      </c>
+      <c r="P1" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>817</v>
+      </c>
+      <c r="R1" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="O2" t="s">
-        <v>813</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1.05</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1.1000000000000001</v>
+      <c r="A2">
+        <v>62770</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>62770.000999999997</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2">
+        <v>160081</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L32" si="0">AVERAGE(G2:K2)</f>
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M32" si="1">ROUND(AVERAGE(G2:K2),0)</f>
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE(G2:K3)</f>
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O32" si="2">L2/N2</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="e">
+        <f>IF(O2&gt;0.95,MAX(1,IF(O2&gt;#REF!,#REF!,O2)),IF(O2&lt;#REF!,#REF!,O2))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q2" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O2))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="A3">
+        <v>62770</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>62770.000999999997</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>814</v>
-      </c>
-      <c r="M3" t="s">
-        <v>815</v>
-      </c>
-      <c r="N3" t="s">
-        <v>816</v>
-      </c>
-      <c r="O3" t="s">
-        <v>817</v>
-      </c>
-      <c r="P3" t="s">
-        <v>818</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>819</v>
+        <v>138</v>
+      </c>
+      <c r="F3">
+        <v>160092</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <f>AVERAGE(G2:K3)</f>
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="e">
+        <f>IF(O3&gt;0.95,MAX(1,IF(O3&gt;#REF!,#REF!,O3)),IF(O3&lt;#REF!,#REF!,O3))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q3" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O3))</f>
+        <v>#REF!</v>
       </c>
       <c r="R3" t="s">
-        <v>820</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -44154,19 +44247,19 @@
         <v>62770</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>62770.000999999997</v>
+        <v>62770.002</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F4">
-        <v>160081</v>
+        <v>160072</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -44184,31 +44277,40 @@
         <v>5</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L34" si="0">AVERAGE(G4:K4)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M34" si="1">ROUND(AVERAGE(G4:K4),0)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N4">
-        <f>AVERAGE(G4:K5)</f>
-        <v>5</v>
+        <f>AVERAGE(G4:K8)</f>
+        <v>4.97</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O34" si="2">L4/N4</f>
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <f>IF(O4&gt;0.95,MAX(1,IF(O4&gt;P2,P2,O4)),IF(O4&lt;P1,P1,O4))</f>
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <f>MIN(Q2,MAX(Q1,O4))</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>1.0060362173038231</v>
+      </c>
+      <c r="P4" s="1" t="e">
+        <f>IF(O4&gt;0.95,MAX(1,IF(O4&gt;#REF!,#REF!,O4)),IF(O4&lt;#REF!,#REF!,O4))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q4" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O4))</f>
+        <v>#REF!</v>
       </c>
       <c r="R4" t="s">
-        <v>135</v>
+        <v>148</v>
+      </c>
+      <c r="S4" t="s">
+        <v>149</v>
+      </c>
+      <c r="T4" t="s">
+        <v>150</v>
+      </c>
+      <c r="U4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -44216,28 +44318,28 @@
         <v>62770</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>62770.000999999997</v>
+        <v>62770.002</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F5">
-        <v>160092</v>
+        <v>160034</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -44247,30 +44349,39 @@
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N5">
-        <f>AVERAGE(G4:K5)</f>
-        <v>5</v>
+        <f>AVERAGE(G4:K8)</f>
+        <v>4.97</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <f>IF(O5&gt;0.95,MAX(1,IF(O5&gt;P2,P2,O5)),IF(O5&lt;P1,P1,O5))</f>
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <f>MIN(Q2,MAX(Q1,O5))</f>
-        <v>1</v>
+        <v>0.98591549295774661</v>
+      </c>
+      <c r="P5" s="1" t="e">
+        <f>IF(O5&gt;0.95,MAX(1,IF(O5&gt;#REF!,#REF!,O5)),IF(O5&lt;#REF!,#REF!,O5))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q5" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O5))</f>
+        <v>#REF!</v>
       </c>
       <c r="R5" t="s">
-        <v>141</v>
+        <v>159</v>
+      </c>
+      <c r="S5" t="s">
+        <v>160</v>
+      </c>
+      <c r="T5" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -44284,16 +44395,16 @@
         <v>62770.002</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F6">
-        <v>160072</v>
+        <v>160027</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -44309,39 +44420,39 @@
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N6">
-        <f>AVERAGE(G6:K10)</f>
+        <f>AVERAGE(G4:K8)</f>
         <v>4.97</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>1.0060362173038</v>
-      </c>
-      <c r="P6" s="1">
-        <f>IF(O6&gt;0.95,MAX(1,IF(O6&gt;P2,P2,O6)),IF(O6&lt;P1,P1,O6))</f>
-        <v>1.0060362173038</v>
-      </c>
-      <c r="Q6" s="1">
-        <f>MIN(Q2,MAX(Q1,O6))</f>
-        <v>1.0060362173038</v>
+        <v>0.99597585513078479</v>
+      </c>
+      <c r="P6" s="1" t="e">
+        <f>IF(O6&gt;0.95,MAX(1,IF(O6&gt;#REF!,#REF!,O6)),IF(O6&lt;#REF!,#REF!,O6))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q6" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O6))</f>
+        <v>#REF!</v>
       </c>
       <c r="R6" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="S6" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="T6" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="U6" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -44355,22 +44466,22 @@
         <v>62770.002</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F7">
-        <v>160034</v>
+        <v>160049</v>
       </c>
       <c r="G7">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -44380,39 +44491,39 @@
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N7">
-        <f>AVERAGE(G6:K10)</f>
+        <f>AVERAGE(G4:K8)</f>
         <v>4.97</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>0.98591549295775005</v>
-      </c>
-      <c r="P7" s="1">
-        <f>IF(O7&gt;0.95,MAX(1,IF(O7&gt;P2,P2,O7)),IF(O7&lt;P1,P1,O7))</f>
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>MIN(Q2,MAX(Q1,O7))</f>
-        <v>0.98591549295775005</v>
+        <v>1.0060362173038231</v>
+      </c>
+      <c r="P7" s="1" t="e">
+        <f>IF(O7&gt;0.95,MAX(1,IF(O7&gt;#REF!,#REF!,O7)),IF(O7&lt;#REF!,#REF!,O7))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q7" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O7))</f>
+        <v>#REF!</v>
       </c>
       <c r="R7" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="S7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="T7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="U7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -44426,16 +44537,16 @@
         <v>62770.002</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="F8">
-        <v>160027</v>
+        <v>160031</v>
       </c>
       <c r="G8">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -44451,39 +44562,39 @@
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N8">
-        <f>AVERAGE(G6:K10)</f>
+        <f>AVERAGE(G4:K8)</f>
         <v>4.97</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>0.99597585513078002</v>
-      </c>
-      <c r="P8" s="1">
-        <f>IF(O8&gt;0.95,MAX(1,IF(O8&gt;P2,P2,O8)),IF(O8&lt;P1,P1,O8))</f>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <f>MIN(Q2,MAX(Q1,O8))</f>
-        <v>0.99597585513078002</v>
+        <v>1.0060362173038231</v>
+      </c>
+      <c r="P8" s="1" t="e">
+        <f>IF(O8&gt;0.95,MAX(1,IF(O8&gt;#REF!,#REF!,O8)),IF(O8&lt;#REF!,#REF!,O8))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q8" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O8))</f>
+        <v>#REF!</v>
       </c>
       <c r="R8" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="S8" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="T8" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="U8" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -44491,25 +44602,25 @@
         <v>62770</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>62770.002</v>
+        <v>62770.002999999997</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="F9">
-        <v>160049</v>
+        <v>160057</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4.67</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -44522,39 +44633,36 @@
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.9340000000000002</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N9">
-        <f>AVERAGE(G6:K10)</f>
-        <v>4.97</v>
+        <f>AVERAGE(G9:K12)</f>
+        <v>4.9835000000000003</v>
       </c>
       <c r="O9">
         <f t="shared" si="2"/>
-        <v>1.0060362173038</v>
-      </c>
-      <c r="P9" s="1">
-        <f>IF(O9&gt;0.95,MAX(1,IF(O9&gt;P2,P2,O9)),IF(O9&lt;P1,P1,O9))</f>
-        <v>1.0060362173038</v>
-      </c>
-      <c r="Q9" s="1">
-        <f>MIN(Q2,MAX(Q1,O9))</f>
-        <v>1.0060362173038</v>
+        <v>0.99006722183204576</v>
+      </c>
+      <c r="P9" s="1" t="e">
+        <f>IF(O9&gt;0.95,MAX(1,IF(O9&gt;#REF!,#REF!,O9)),IF(O9&lt;#REF!,#REF!,O9))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q9" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O9))</f>
+        <v>#REF!</v>
       </c>
       <c r="R9" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="S9" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="T9" t="s">
-        <v>178</v>
-      </c>
-      <c r="U9" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -44562,19 +44670,19 @@
         <v>62770</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>62770.002</v>
+        <v>62770.002999999997</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F10">
-        <v>160031</v>
+        <v>160101</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -44600,32 +44708,29 @@
         <v>5</v>
       </c>
       <c r="N10">
-        <f>AVERAGE(G6:K10)</f>
-        <v>4.97</v>
+        <f>AVERAGE(G9:K12)</f>
+        <v>4.9835000000000003</v>
       </c>
       <c r="O10">
         <f t="shared" si="2"/>
-        <v>1.0060362173038</v>
-      </c>
-      <c r="P10" s="1">
-        <f>IF(O10&gt;0.95,MAX(1,IF(O10&gt;P2,P2,O10)),IF(O10&lt;P1,P1,O10))</f>
-        <v>1.0060362173038</v>
-      </c>
-      <c r="Q10" s="1">
-        <f>MIN(Q2,MAX(Q1,O10))</f>
-        <v>1.0060362173038</v>
+        <v>1.0033109260559847</v>
+      </c>
+      <c r="P10" s="1" t="e">
+        <f>IF(O10&gt;0.95,MAX(1,IF(O10&gt;#REF!,#REF!,O10)),IF(O10&lt;#REF!,#REF!,O10))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q10" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O10))</f>
+        <v>#REF!</v>
       </c>
       <c r="R10" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="S10" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="T10" t="s">
-        <v>190</v>
-      </c>
-      <c r="U10" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -44639,19 +44744,19 @@
         <v>62770.002999999997</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F11">
-        <v>160057</v>
+        <v>160071</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -44664,36 +44769,36 @@
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>4.9340000000000002</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N11">
-        <f>AVERAGE(G11:K14)</f>
+        <f>AVERAGE(G9:K12)</f>
         <v>4.9835000000000003</v>
       </c>
       <c r="O11">
         <f t="shared" si="2"/>
-        <v>0.99006722183204998</v>
-      </c>
-      <c r="P11" s="1">
-        <f>IF(O11&gt;0.95,MAX(1,IF(O11&gt;P2,P2,O11)),IF(O11&lt;P1,P1,O11))</f>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>MIN(Q2,MAX(Q1,O11))</f>
-        <v>0.99006722183204998</v>
+        <v>1.0033109260559847</v>
+      </c>
+      <c r="P11" s="1" t="e">
+        <f>IF(O11&gt;0.95,MAX(1,IF(O11&gt;#REF!,#REF!,O11)),IF(O11&lt;#REF!,#REF!,O11))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q11" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O11))</f>
+        <v>#REF!</v>
       </c>
       <c r="R11" t="s">
-        <v>199</v>
+        <v>819</v>
       </c>
       <c r="S11" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="T11" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -44707,13 +44812,13 @@
         <v>62770.002999999997</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F12">
-        <v>160101</v>
+        <v>160056</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -44739,29 +44844,29 @@
         <v>5</v>
       </c>
       <c r="N12">
-        <f>AVERAGE(G11:K14)</f>
+        <f>AVERAGE(G9:K12)</f>
         <v>4.9835000000000003</v>
       </c>
       <c r="O12">
         <f t="shared" si="2"/>
-        <v>1.003310926056</v>
-      </c>
-      <c r="P12" s="1">
-        <f>IF(O12&gt;0.95,MAX(1,IF(O12&gt;P2,P2,O12)),IF(O12&lt;P1,P1,O12))</f>
-        <v>1.003310926056</v>
-      </c>
-      <c r="Q12" s="1">
-        <f>MIN(Q2,MAX(Q1,O12))</f>
-        <v>1.003310926056</v>
+        <v>1.0033109260559847</v>
+      </c>
+      <c r="P12" s="1" t="e">
+        <f>IF(O12&gt;0.95,MAX(1,IF(O12&gt;#REF!,#REF!,O12)),IF(O12&lt;#REF!,#REF!,O12))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q12" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O12))</f>
+        <v>#REF!</v>
       </c>
       <c r="R12" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="S12" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="T12" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -44769,19 +44874,19 @@
         <v>62770</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>62770.002999999997</v>
+        <v>62770.004000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F13">
-        <v>160071</v>
+        <v>160042</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -44807,29 +44912,29 @@
         <v>5</v>
       </c>
       <c r="N13">
-        <f>AVERAGE(G11:K14)</f>
-        <v>4.9835000000000003</v>
+        <f>AVERAGE(G13:K16)</f>
+        <v>5</v>
       </c>
       <c r="O13">
         <f t="shared" si="2"/>
-        <v>1.003310926056</v>
-      </c>
-      <c r="P13" s="1">
-        <f>IF(O13&gt;0.95,MAX(1,IF(O13&gt;P2,P2,O13)),IF(O13&lt;P1,P1,O13))</f>
-        <v>1.003310926056</v>
-      </c>
-      <c r="Q13" s="1">
-        <f>MIN(Q2,MAX(Q1,O13))</f>
-        <v>1.003310926056</v>
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="e">
+        <f>IF(O13&gt;0.95,MAX(1,IF(O13&gt;#REF!,#REF!,O13)),IF(O13&lt;#REF!,#REF!,O13))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q13" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O13))</f>
+        <v>#REF!</v>
       </c>
       <c r="R13" t="s">
-        <v>821</v>
+        <v>232</v>
       </c>
       <c r="S13" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="T13" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -44837,19 +44942,19 @@
         <v>62770</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>62770.002999999997</v>
+        <v>62770.004000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E14" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="F14">
-        <v>160056</v>
+        <v>160045</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -44875,29 +44980,29 @@
         <v>5</v>
       </c>
       <c r="N14">
-        <f>AVERAGE(G11:K14)</f>
-        <v>4.9835000000000003</v>
+        <f>AVERAGE(G13:K16)</f>
+        <v>5</v>
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>1.003310926056</v>
-      </c>
-      <c r="P14" s="1">
-        <f>IF(O14&gt;0.95,MAX(1,IF(O14&gt;P2,P2,O14)),IF(O14&lt;P1,P1,O14))</f>
-        <v>1.003310926056</v>
-      </c>
-      <c r="Q14" s="1">
-        <f>MIN(Q2,MAX(Q1,O14))</f>
-        <v>1.003310926056</v>
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="e">
+        <f>IF(O14&gt;0.95,MAX(1,IF(O14&gt;#REF!,#REF!,O14)),IF(O14&lt;#REF!,#REF!,O14))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q14" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O14))</f>
+        <v>#REF!</v>
       </c>
       <c r="R14" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="S14" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="T14" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -44911,13 +45016,13 @@
         <v>62770.004000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F15">
-        <v>160042</v>
+        <v>160082</v>
       </c>
       <c r="G15">
         <v>5</v>
@@ -44943,29 +45048,29 @@
         <v>5</v>
       </c>
       <c r="N15">
-        <f>AVERAGE(G15:K18)</f>
+        <f>AVERAGE(G13:K16)</f>
         <v>5</v>
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P15" s="1">
-        <f>IF(O15&gt;0.95,MAX(1,IF(O15&gt;P2,P2,O15)),IF(O15&lt;P1,P1,O15))</f>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1">
-        <f>MIN(Q2,MAX(Q1,O15))</f>
-        <v>1</v>
+      <c r="P15" s="1" t="e">
+        <f>IF(O15&gt;0.95,MAX(1,IF(O15&gt;#REF!,#REF!,O15)),IF(O15&lt;#REF!,#REF!,O15))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q15" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O15))</f>
+        <v>#REF!</v>
       </c>
       <c r="R15" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="S15" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="T15" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -44979,13 +45084,13 @@
         <v>62770.004000000001</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F16">
-        <v>160045</v>
+        <v>160083</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -45011,29 +45116,29 @@
         <v>5</v>
       </c>
       <c r="N16">
-        <f>AVERAGE(G15:K18)</f>
+        <f>AVERAGE(G13:K16)</f>
         <v>5</v>
       </c>
       <c r="O16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P16" s="1">
-        <f>IF(O16&gt;0.95,MAX(1,IF(O16&gt;P2,P2,O16)),IF(O16&lt;P1,P1,O16))</f>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
-        <f>MIN(Q2,MAX(Q1,O16))</f>
-        <v>1</v>
+      <c r="P16" s="1" t="e">
+        <f>IF(O16&gt;0.95,MAX(1,IF(O16&gt;#REF!,#REF!,O16)),IF(O16&lt;#REF!,#REF!,O16))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q16" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O16))</f>
+        <v>#REF!</v>
       </c>
       <c r="R16" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="S16" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="T16" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -45041,22 +45146,22 @@
         <v>62770</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>62770.004000000001</v>
+        <v>62770.004999999997</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E17" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F17">
-        <v>160082</v>
+        <v>160106</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H17">
         <v>5</v>
@@ -45068,40 +45173,43 @@
         <v>5</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N17">
-        <f>AVERAGE(G15:K18)</f>
-        <v>5</v>
+        <f>AVERAGE(G17:K21)</f>
+        <v>4.88</v>
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P17" s="1">
-        <f>IF(O17&gt;0.95,MAX(1,IF(O17&gt;P2,P2,O17)),IF(O17&lt;P1,P1,O17))</f>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1">
-        <f>MIN(Q2,MAX(Q1,O17))</f>
-        <v>1</v>
+        <v>1.0040983606557379</v>
+      </c>
+      <c r="P17" s="1" t="e">
+        <f>IF(O17&gt;0.95,MAX(1,IF(O17&gt;#REF!,#REF!,O17)),IF(O17&lt;#REF!,#REF!,O17))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q17" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O17))</f>
+        <v>#REF!</v>
       </c>
       <c r="R17" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="S17" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="T17" t="s">
-        <v>251</v>
+        <v>265</v>
+      </c>
+      <c r="U17" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -45109,22 +45217,22 @@
         <v>62770</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>62770.004000000001</v>
+        <v>62770.004999999997</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E18" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F18">
-        <v>160083</v>
+        <v>160073</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -45136,40 +45244,43 @@
         <v>5</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N18">
-        <f>AVERAGE(G15:K18)</f>
-        <v>5</v>
+        <f>AVERAGE(G17:K21)</f>
+        <v>4.88</v>
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="1">
-        <f>IF(O18&gt;0.95,MAX(1,IF(O18&gt;P2,P2,O18)),IF(O18&lt;P1,P1,O18))</f>
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1">
-        <f>MIN(Q2,MAX(Q1,O18))</f>
-        <v>1</v>
+        <v>1.0040983606557379</v>
+      </c>
+      <c r="P18" s="1" t="e">
+        <f>IF(O18&gt;0.95,MAX(1,IF(O18&gt;#REF!,#REF!,O18)),IF(O18&lt;#REF!,#REF!,O18))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q18" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O18))</f>
+        <v>#REF!</v>
       </c>
       <c r="R18" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="S18" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="T18" t="s">
-        <v>258</v>
+        <v>275</v>
+      </c>
+      <c r="U18" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -45183,22 +45294,22 @@
         <v>62770.004999999997</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="F19">
-        <v>160106</v>
+        <v>160103</v>
       </c>
       <c r="G19">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H19">
         <v>5</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -45208,39 +45319,39 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>4.75</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N19">
-        <f>AVERAGE(G19:K23)</f>
+        <f>AVERAGE(G17:K21)</f>
         <v>4.88</v>
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>1.0040983606556999</v>
-      </c>
-      <c r="P19" s="1">
-        <f>IF(O19&gt;0.95,MAX(1,IF(O19&gt;P2,P2,O19)),IF(O19&lt;P1,P1,O19))</f>
-        <v>1.0040983606556999</v>
-      </c>
-      <c r="Q19" s="1">
-        <f>MIN(Q2,MAX(Q1,O19))</f>
-        <v>1.0040983606556999</v>
+        <v>0.97336065573770492</v>
+      </c>
+      <c r="P19" s="1" t="e">
+        <f>IF(O19&gt;0.95,MAX(1,IF(O19&gt;#REF!,#REF!,O19)),IF(O19&lt;#REF!,#REF!,O19))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q19" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O19))</f>
+        <v>#REF!</v>
       </c>
       <c r="R19" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="S19" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="T19" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="U19" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -45254,64 +45365,64 @@
         <v>62770.004999999997</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="E20" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F20">
-        <v>160073</v>
+        <v>160111</v>
       </c>
       <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
         <v>4.75</v>
       </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
       <c r="J20">
         <v>5</v>
       </c>
       <c r="K20">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>4.95</v>
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N20">
-        <f>AVERAGE(G19:K23)</f>
+        <f>AVERAGE(G17:K21)</f>
         <v>4.88</v>
       </c>
       <c r="O20">
         <f t="shared" si="2"/>
-        <v>1.0040983606556999</v>
-      </c>
-      <c r="P20" s="1">
-        <f>IF(O20&gt;0.95,MAX(1,IF(O20&gt;P2,P2,O20)),IF(O20&lt;P1,P1,O20))</f>
-        <v>1.0040983606556999</v>
-      </c>
-      <c r="Q20" s="1">
-        <f>MIN(Q2,MAX(Q1,O20))</f>
-        <v>1.0040983606556999</v>
+        <v>1.014344262295082</v>
+      </c>
+      <c r="P20" s="1" t="e">
+        <f>IF(O20&gt;0.95,MAX(1,IF(O20&gt;#REF!,#REF!,O20)),IF(O20&lt;#REF!,#REF!,O20))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q20" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O20))</f>
+        <v>#REF!</v>
       </c>
       <c r="R20" t="s">
+        <v>266</v>
+      </c>
+      <c r="S20" t="s">
         <v>268</v>
       </c>
-      <c r="S20" t="s">
-        <v>266</v>
-      </c>
       <c r="T20" t="s">
-        <v>275</v>
+        <v>820</v>
       </c>
       <c r="U20" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -45325,22 +45436,22 @@
         <v>62770.004999999997</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="F21">
-        <v>160103</v>
+        <v>160043</v>
       </c>
       <c r="G21">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -45350,39 +45461,39 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N21">
-        <f>AVERAGE(G19:K23)</f>
+        <f>AVERAGE(G17:K21)</f>
         <v>4.88</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
-        <v>0.97336065573770003</v>
-      </c>
-      <c r="P21" s="1">
-        <f>IF(O21&gt;0.95,MAX(1,IF(O21&gt;P2,P2,O21)),IF(O21&lt;P1,P1,O21))</f>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1">
-        <f>MIN(Q2,MAX(Q1,O21))</f>
-        <v>0.97336065573770003</v>
+        <v>1.0040983606557379</v>
+      </c>
+      <c r="P21" s="1" t="e">
+        <f>IF(O21&gt;0.95,MAX(1,IF(O21&gt;#REF!,#REF!,O21)),IF(O21&lt;#REF!,#REF!,O21))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q21" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O21))</f>
+        <v>#REF!</v>
       </c>
       <c r="R21" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="S21" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="T21" t="s">
-        <v>268</v>
+        <v>821</v>
       </c>
       <c r="U21" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -45390,70 +45501,67 @@
         <v>62770</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>62770.004999999997</v>
+        <v>62770.006000000001</v>
       </c>
       <c r="D22" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="E22" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="F22">
-        <v>160111</v>
+        <v>160087</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>3.33</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>3.33</v>
       </c>
       <c r="I22">
-        <v>4.75</v>
+        <v>2.67</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>3.67</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>3.67</v>
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>4.95</v>
+        <v>3.3340000000000005</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <f>AVERAGE(G19:K23)</f>
-        <v>4.88</v>
+        <f>AVERAGE(G22:K25)</f>
+        <v>4.3840000000000003</v>
       </c>
       <c r="O22">
         <f t="shared" si="2"/>
-        <v>1.0143442622951</v>
-      </c>
-      <c r="P22" s="1">
-        <f>IF(O22&gt;0.95,MAX(1,IF(O22&gt;P2,P2,O22)),IF(O22&lt;P1,P1,O22))</f>
-        <v>1.0143442622951</v>
-      </c>
-      <c r="Q22" s="1">
-        <f>MIN(Q2,MAX(Q1,O22))</f>
-        <v>1.0143442622951</v>
+        <v>0.76049270072992703</v>
+      </c>
+      <c r="P22" s="1" t="e">
+        <f>IF(O22&gt;0.95,MAX(1,IF(O22&gt;#REF!,#REF!,O22)),IF(O22&lt;#REF!,#REF!,O22))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q22" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O22))</f>
+        <v>#REF!</v>
       </c>
       <c r="R22" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="S22" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="T22" t="s">
-        <v>822</v>
-      </c>
-      <c r="U22" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -45461,70 +45569,67 @@
         <v>62770</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>62770.004999999997</v>
+        <v>62770.006000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E23" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F23">
-        <v>160043</v>
+        <v>160086</v>
       </c>
       <c r="G23">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>4.67</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4.67</v>
       </c>
       <c r="K23">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <f>AVERAGE(G19:K23)</f>
-        <v>4.88</v>
+        <f>AVERAGE(G22:K25)</f>
+        <v>4.3840000000000003</v>
       </c>
       <c r="O23">
         <f t="shared" si="2"/>
-        <v>1.0040983606556999</v>
-      </c>
-      <c r="P23" s="1">
-        <f>IF(O23&gt;0.95,MAX(1,IF(O23&gt;P2,P2,O23)),IF(O23&lt;P1,P1,O23))</f>
-        <v>1.0040983606556999</v>
-      </c>
-      <c r="Q23" s="1">
-        <f>MIN(Q2,MAX(Q1,O23))</f>
-        <v>1.0040983606556999</v>
+        <v>1.0036496350364963</v>
+      </c>
+      <c r="P23" s="1" t="e">
+        <f>IF(O23&gt;0.95,MAX(1,IF(O23&gt;#REF!,#REF!,O23)),IF(O23&lt;#REF!,#REF!,O23))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q23" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O23))</f>
+        <v>#REF!</v>
       </c>
       <c r="R23" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="S23" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="T23" t="s">
-        <v>823</v>
-      </c>
-      <c r="U23" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -45538,61 +45643,61 @@
         <v>62770.006000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E24" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="F24">
-        <v>160087</v>
+        <v>160060</v>
       </c>
       <c r="G24">
-        <v>3.33</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>3.33</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>2.67</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>3.67</v>
+        <v>4.67</v>
       </c>
       <c r="K24">
-        <v>3.67</v>
+        <v>4.67</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>3.3340000000000001</v>
+        <v>4.8680000000000003</v>
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24">
-        <f>AVERAGE(G24:K27)</f>
+        <f>AVERAGE(G22:K25)</f>
         <v>4.3840000000000003</v>
       </c>
       <c r="O24">
         <f t="shared" si="2"/>
-        <v>0.76049270072993003</v>
-      </c>
-      <c r="P24" s="1">
-        <f>IF(O24&gt;0.95,MAX(1,IF(O24&gt;P2,P2,O24)),IF(O24&lt;P1,P1,O24))</f>
-        <v>0.76049270072993003</v>
-      </c>
-      <c r="Q24" s="1">
-        <f>MIN(Q2,MAX(Q1,O24))</f>
-        <v>0.76049270072993003</v>
+        <v>1.1104014598540146</v>
+      </c>
+      <c r="P24" s="1" t="e">
+        <f>IF(O24&gt;0.95,MAX(1,IF(O24&gt;#REF!,#REF!,O24)),IF(O24&lt;#REF!,#REF!,O24))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q24" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O24))</f>
+        <v>#REF!</v>
       </c>
       <c r="R24" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="S24" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="T24" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -45606,61 +45711,61 @@
         <v>62770.006000000001</v>
       </c>
       <c r="D25" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E25" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F25">
-        <v>160086</v>
+        <v>160102</v>
       </c>
       <c r="G25">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <v>4.67</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>4.9340000000000002</v>
       </c>
       <c r="M25">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <f>AVERAGE(G24:K27)</f>
+        <f>AVERAGE(G22:K25)</f>
         <v>4.3840000000000003</v>
       </c>
       <c r="O25">
         <f t="shared" si="2"/>
-        <v>1.0036496350365001</v>
-      </c>
-      <c r="P25" s="1">
-        <f>IF(O25&gt;0.95,MAX(1,IF(O25&gt;P2,P2,O25)),IF(O25&lt;P1,P1,O25))</f>
-        <v>1.0036496350365001</v>
-      </c>
-      <c r="Q25" s="1">
-        <f>MIN(Q2,MAX(Q1,O25))</f>
-        <v>1.0036496350365001</v>
+        <v>1.125456204379562</v>
+      </c>
+      <c r="P25" s="1" t="e">
+        <f>IF(O25&gt;0.95,MAX(1,IF(O25&gt;#REF!,#REF!,O25)),IF(O25&lt;#REF!,#REF!,O25))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q25" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O25))</f>
+        <v>#REF!</v>
       </c>
       <c r="R25" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="S25" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="T25" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -45668,19 +45773,19 @@
         <v>62770</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>62770.006000000001</v>
+        <v>62770.006999999998</v>
       </c>
       <c r="D26" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="E26" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="F26">
-        <v>160060</v>
+        <v>160070</v>
       </c>
       <c r="G26">
         <v>5</v>
@@ -45692,43 +45797,37 @@
         <v>5</v>
       </c>
       <c r="J26">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>4.8680000000000003</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N26">
-        <f>AVERAGE(G24:K27)</f>
-        <v>4.3840000000000003</v>
+        <f>AVERAGE(G26:K27)</f>
+        <v>5</v>
       </c>
       <c r="O26">
         <f t="shared" si="2"/>
-        <v>1.110401459854</v>
-      </c>
-      <c r="P26" s="1">
-        <f>IF(O26&gt;0.95,MAX(1,IF(O26&gt;P2,P2,O26)),IF(O26&lt;P1,P1,O26))</f>
-        <v>1.05</v>
-      </c>
-      <c r="Q26" s="1">
-        <f>MIN(Q2,MAX(Q1,O26))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="e">
+        <f>IF(O26&gt;0.95,MAX(1,IF(O26&gt;#REF!,#REF!,O26)),IF(O26&lt;#REF!,#REF!,O26))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q26" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O26))</f>
+        <v>#REF!</v>
       </c>
       <c r="R26" t="s">
-        <v>325</v>
-      </c>
-      <c r="S26" t="s">
-        <v>324</v>
-      </c>
-      <c r="T26" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -45736,19 +45835,19 @@
         <v>62770</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>62770.006000000001</v>
+        <v>62770.006999999998</v>
       </c>
       <c r="D27" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="E27" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="F27">
-        <v>160102</v>
+        <v>160058</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -45760,43 +45859,37 @@
         <v>5</v>
       </c>
       <c r="J27">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="K27">
         <v>5</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>4.9340000000000002</v>
+        <v>5</v>
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N27">
-        <f>AVERAGE(G24:K27)</f>
-        <v>4.3840000000000003</v>
+        <f>AVERAGE(G26:K27)</f>
+        <v>5</v>
       </c>
       <c r="O27">
         <f t="shared" si="2"/>
-        <v>1.1254562043795999</v>
-      </c>
-      <c r="P27" s="1">
-        <f>IF(O27&gt;0.95,MAX(1,IF(O27&gt;P2,P2,O27)),IF(O27&lt;P1,P1,O27))</f>
-        <v>1.05</v>
-      </c>
-      <c r="Q27" s="1">
-        <f>MIN(Q2,MAX(Q1,O27))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="e">
+        <f>IF(O27&gt;0.95,MAX(1,IF(O27&gt;#REF!,#REF!,O27)),IF(O27&lt;#REF!,#REF!,O27))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q27" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O27))</f>
+        <v>#REF!</v>
       </c>
       <c r="R27" t="s">
-        <v>334</v>
-      </c>
-      <c r="S27" t="s">
-        <v>332</v>
-      </c>
-      <c r="T27" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -45804,19 +45897,19 @@
         <v>62770</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>62770.006999999998</v>
+        <v>62770.008000000002</v>
       </c>
       <c r="D28" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="E28" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="F28">
-        <v>160070</v>
+        <v>160096</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -45842,23 +45935,32 @@
         <v>5</v>
       </c>
       <c r="N28">
-        <f>AVERAGE(G28:K29)</f>
-        <v>5</v>
+        <f>AVERAGE(G28:K32)</f>
+        <v>4.8600000000000003</v>
       </c>
       <c r="O28">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P28" s="1">
-        <f>IF(O28&gt;0.95,MAX(1,IF(O28&gt;P2,P2,O28)),IF(O28&lt;P1,P1,O28))</f>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="1">
-        <f>MIN(Q2,MAX(Q1,O28))</f>
-        <v>1</v>
+        <v>1.0288065843621399</v>
+      </c>
+      <c r="P28" s="1" t="e">
+        <f>IF(O28&gt;0.95,MAX(1,IF(O28&gt;#REF!,#REF!,O28)),IF(O28&lt;#REF!,#REF!,O28))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q28" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O28))</f>
+        <v>#REF!</v>
       </c>
       <c r="R28" t="s">
-        <v>341</v>
+        <v>356</v>
+      </c>
+      <c r="S28" t="s">
+        <v>354</v>
+      </c>
+      <c r="T28" t="s">
+        <v>353</v>
+      </c>
+      <c r="U28" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -45866,61 +45968,70 @@
         <v>62770</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>62770.006999999998</v>
+        <v>62770.008000000002</v>
       </c>
       <c r="D29" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="E29" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="F29">
-        <v>160058</v>
+        <v>160104</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M29">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N29">
-        <f>AVERAGE(G28:K29)</f>
-        <v>5</v>
+        <f>AVERAGE(G28:K32)</f>
+        <v>4.8600000000000003</v>
       </c>
       <c r="O29">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P29" s="1">
-        <f>IF(O29&gt;0.95,MAX(1,IF(O29&gt;P2,P2,O29)),IF(O29&lt;P1,P1,O29))</f>
-        <v>1</v>
-      </c>
-      <c r="Q29" s="1">
-        <f>MIN(Q2,MAX(Q1,O29))</f>
-        <v>1</v>
+        <v>0.94650205761316863</v>
+      </c>
+      <c r="P29" s="1" t="e">
+        <f>IF(O29&gt;0.95,MAX(1,IF(O29&gt;#REF!,#REF!,O29)),IF(O29&lt;#REF!,#REF!,O29))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q29" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O29))</f>
+        <v>#REF!</v>
       </c>
       <c r="R29" t="s">
-        <v>348</v>
+        <v>362</v>
+      </c>
+      <c r="S29" t="s">
+        <v>356</v>
+      </c>
+      <c r="T29" t="s">
+        <v>364</v>
+      </c>
+      <c r="U29" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -45934,13 +46045,13 @@
         <v>62770.008000000002</v>
       </c>
       <c r="D30" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="E30" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="F30">
-        <v>160096</v>
+        <v>160097</v>
       </c>
       <c r="G30">
         <v>5</v>
@@ -45966,32 +46077,32 @@
         <v>5</v>
       </c>
       <c r="N30">
-        <f>AVERAGE(G30:K34)</f>
+        <f>AVERAGE(G28:K32)</f>
         <v>4.8600000000000003</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
-        <v>1.0288065843620999</v>
-      </c>
-      <c r="P30" s="1">
-        <f>IF(O30&gt;0.95,MAX(1,IF(O30&gt;P2,P2,O30)),IF(O30&lt;P1,P1,O30))</f>
-        <v>1.0288065843620999</v>
-      </c>
-      <c r="Q30" s="1">
-        <f>MIN(Q2,MAX(Q1,O30))</f>
-        <v>1.0288065843620999</v>
+        <v>1.0288065843621399</v>
+      </c>
+      <c r="P30" s="1" t="e">
+        <f>IF(O30&gt;0.95,MAX(1,IF(O30&gt;#REF!,#REF!,O30)),IF(O30&lt;#REF!,#REF!,O30))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q30" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O30))</f>
+        <v>#REF!</v>
       </c>
       <c r="R30" t="s">
         <v>356</v>
       </c>
       <c r="S30" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="T30" t="s">
         <v>353</v>
       </c>
       <c r="U30" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -46005,19 +46116,19 @@
         <v>62770.008000000002</v>
       </c>
       <c r="D31" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="E31" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="F31">
-        <v>160104</v>
+        <v>160098</v>
       </c>
       <c r="G31">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H31">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I31">
         <v>4.75</v>
@@ -46026,43 +46137,43 @@
         <v>4.75</v>
       </c>
       <c r="K31">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="M31">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N31">
-        <f>AVERAGE(G30:K34)</f>
+        <f>AVERAGE(G28:K32)</f>
         <v>4.8600000000000003</v>
       </c>
       <c r="O31">
         <f t="shared" si="2"/>
-        <v>0.94650205761316997</v>
-      </c>
-      <c r="P31" s="1">
-        <f>IF(O31&gt;0.95,MAX(1,IF(O31&gt;P2,P2,O31)),IF(O31&lt;P1,P1,O31))</f>
-        <v>0.94650205761316997</v>
-      </c>
-      <c r="Q31" s="1">
-        <f>MIN(Q2,MAX(Q1,O31))</f>
-        <v>0.94650205761316997</v>
+        <v>0.98765432098765427</v>
+      </c>
+      <c r="P31" s="1" t="e">
+        <f>IF(O31&gt;0.95,MAX(1,IF(O31&gt;#REF!,#REF!,O31)),IF(O31&lt;#REF!,#REF!,O31))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q31" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O31))</f>
+        <v>#REF!</v>
       </c>
       <c r="R31" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="S31" t="s">
+        <v>379</v>
+      </c>
+      <c r="T31" t="s">
         <v>356</v>
       </c>
-      <c r="T31" t="s">
-        <v>364</v>
-      </c>
       <c r="U31" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -46076,13 +46187,13 @@
         <v>62770.008000000002</v>
       </c>
       <c r="D32" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="E32" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="F32">
-        <v>160097</v>
+        <v>160099</v>
       </c>
       <c r="G32">
         <v>5</v>
@@ -46091,140 +46202,89 @@
         <v>5</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K32">
         <v>5</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N32">
-        <f>AVERAGE(G30:K34)</f>
+        <f>AVERAGE(G28:K32)</f>
         <v>4.8600000000000003</v>
       </c>
       <c r="O32">
         <f t="shared" si="2"/>
-        <v>1.0288065843620999</v>
-      </c>
-      <c r="P32" s="1">
-        <f>IF(O32&gt;0.95,MAX(1,IF(O32&gt;P2,P2,O32)),IF(O32&lt;P1,P1,O32))</f>
-        <v>1.0288065843620999</v>
-      </c>
-      <c r="Q32" s="1">
-        <f>MIN(Q2,MAX(Q1,O32))</f>
-        <v>1.0288065843620999</v>
+        <v>1.0082304526748971</v>
+      </c>
+      <c r="P32" s="1" t="e">
+        <f>IF(O32&gt;0.95,MAX(1,IF(O32&gt;#REF!,#REF!,O32)),IF(O32&lt;#REF!,#REF!,O32))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q32" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O32))</f>
+        <v>#REF!</v>
       </c>
       <c r="R32" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="S32" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="T32" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="U32" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>62770</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>62770.008000000002</v>
+        <v>62770.008999999998</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="E33" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="F33">
-        <v>160098</v>
-      </c>
-      <c r="G33">
-        <v>4.75</v>
-      </c>
-      <c r="H33">
-        <v>4.75</v>
-      </c>
-      <c r="I33">
-        <v>4.75</v>
-      </c>
-      <c r="J33">
-        <v>4.75</v>
-      </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="N33">
-        <f>AVERAGE(G30:K34)</f>
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="2"/>
-        <v>0.98765432098765005</v>
-      </c>
-      <c r="P33" s="1">
-        <f>IF(O33&gt;0.95,MAX(1,IF(O33&gt;P2,P2,O33)),IF(O33&lt;P1,P1,O33))</f>
-        <v>1</v>
-      </c>
-      <c r="Q33" s="1">
-        <f>MIN(Q2,MAX(Q1,O33))</f>
-        <v>0.98765432098765005</v>
-      </c>
-      <c r="R33" t="s">
-        <v>353</v>
-      </c>
-      <c r="S33" t="s">
-        <v>379</v>
-      </c>
-      <c r="T33" t="s">
-        <v>356</v>
-      </c>
-      <c r="U33" t="s">
-        <v>378</v>
+        <v>160052</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>62770</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>62770.008000000002</v>
+        <v>62770.01</v>
       </c>
       <c r="D34" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="E34" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="F34">
-        <v>160099</v>
+        <v>160059</v>
       </c>
       <c r="G34">
         <v>5</v>
@@ -46233,72 +46293,117 @@
         <v>5</v>
       </c>
       <c r="I34">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K34">
         <v>5</v>
       </c>
       <c r="L34">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <f t="shared" ref="L34:L41" si="3">AVERAGE(G34:K34)</f>
+        <v>5</v>
       </c>
       <c r="M34">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M34:M41" si="4">ROUND(AVERAGE(G34:K34),0)</f>
         <v>5</v>
       </c>
       <c r="N34">
-        <f>AVERAGE(G30:K34)</f>
-        <v>4.8600000000000003</v>
+        <f>AVERAGE(G34:K37)</f>
+        <v>4.4994999999999994</v>
       </c>
       <c r="O34">
-        <f t="shared" si="2"/>
-        <v>1.0082304526749</v>
-      </c>
-      <c r="P34" s="1">
-        <f>IF(O34&gt;0.95,MAX(1,IF(O34&gt;P2,P2,O34)),IF(O34&lt;P1,P1,O34))</f>
-        <v>1.0082304526749</v>
-      </c>
-      <c r="Q34" s="1">
-        <f>MIN(Q2,MAX(Q1,O34))</f>
-        <v>1.0082304526749</v>
+        <f t="shared" ref="O34:O41" si="5">L34/N34</f>
+        <v>1.1112345816201801</v>
+      </c>
+      <c r="P34" s="1" t="e">
+        <f>IF(O34&gt;0.95,MAX(1,IF(O34&gt;#REF!,#REF!,O34)),IF(O34&lt;#REF!,#REF!,O34))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q34" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O34))</f>
+        <v>#REF!</v>
       </c>
       <c r="R34" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="S34" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="T34" t="s">
-        <v>387</v>
-      </c>
-      <c r="U34" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>62770</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>62770.008999999998</v>
+        <v>62770.01</v>
       </c>
       <c r="D35" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="E35" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="F35">
-        <v>160052</v>
+        <v>160091</v>
+      </c>
+      <c r="G35">
+        <v>4.33</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>4.33</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>4.33</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>4.1980000000000004</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <f>AVERAGE(G34:K37)</f>
+        <v>4.4994999999999994</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="5"/>
+        <v>0.93299255472830334</v>
+      </c>
+      <c r="P35" s="1" t="e">
+        <f>IF(O35&gt;0.95,MAX(1,IF(O35&gt;#REF!,#REF!,O35)),IF(O35&lt;#REF!,#REF!,O35))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q35" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O35))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R35" t="s">
+        <v>410</v>
+      </c>
+      <c r="S35" t="s">
+        <v>409</v>
+      </c>
+      <c r="T35" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>62770</v>
       </c>
@@ -46309,64 +46414,64 @@
         <v>62770.01</v>
       </c>
       <c r="D36" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="E36" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="F36">
-        <v>160059</v>
+        <v>160051</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>4.67</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>4.67</v>
       </c>
       <c r="L36">
-        <f t="shared" ref="L36:L43" si="3">AVERAGE(G36:K36)</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4.4659999999999993</v>
       </c>
       <c r="M36">
-        <f t="shared" ref="M36:M43" si="4">ROUND(AVERAGE(G36:K36),0)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="N36">
-        <f>AVERAGE(G36:K39)</f>
-        <v>4.4995000000000003</v>
+        <f>AVERAGE(G34:K37)</f>
+        <v>4.4994999999999994</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:O43" si="5">L36/N36</f>
-        <v>1.1112345816202001</v>
-      </c>
-      <c r="P36" s="1">
-        <f>IF(O36&gt;0.95,MAX(1,IF(O36&gt;P2,P2,O36)),IF(O36&lt;P1,P1,O36))</f>
-        <v>1.05</v>
-      </c>
-      <c r="Q36" s="1">
-        <f>MIN(Q2,MAX(Q1,O36))</f>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="5"/>
+        <v>0.99255472830314473</v>
+      </c>
+      <c r="P36" s="1" t="e">
+        <f>IF(O36&gt;0.95,MAX(1,IF(O36&gt;#REF!,#REF!,O36)),IF(O36&lt;#REF!,#REF!,O36))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q36" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O36))</f>
+        <v>#REF!</v>
       </c>
       <c r="R36" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="S36" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="T36" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>62770</v>
       </c>
@@ -46377,200 +46482,200 @@
         <v>62770.01</v>
       </c>
       <c r="D37" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="E37" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="F37">
-        <v>160091</v>
+        <v>160089</v>
       </c>
       <c r="G37">
         <v>4.33</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>4.67</v>
       </c>
       <c r="I37">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J37">
         <v>4</v>
       </c>
       <c r="K37">
-        <v>4.33</v>
+        <v>4.67</v>
       </c>
       <c r="L37">
         <f t="shared" si="3"/>
-        <v>4.1980000000000004</v>
+        <v>4.3340000000000005</v>
       </c>
       <c r="M37">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="N37">
-        <f>AVERAGE(G36:K39)</f>
-        <v>4.4995000000000003</v>
+        <f>AVERAGE(G34:K37)</f>
+        <v>4.4994999999999994</v>
       </c>
       <c r="O37">
         <f t="shared" si="5"/>
-        <v>0.93299255472830001</v>
-      </c>
-      <c r="P37" s="1">
-        <f>IF(O37&gt;0.95,MAX(1,IF(O37&gt;P2,P2,O37)),IF(O37&lt;P1,P1,O37))</f>
-        <v>0.93299255472830001</v>
-      </c>
-      <c r="Q37" s="1">
-        <f>MIN(Q2,MAX(Q1,O37))</f>
-        <v>0.93299255472830001</v>
+        <v>0.96321813534837231</v>
+      </c>
+      <c r="P37" s="1" t="e">
+        <f>IF(O37&gt;0.95,MAX(1,IF(O37&gt;#REF!,#REF!,O37)),IF(O37&lt;#REF!,#REF!,O37))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q37" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O37))</f>
+        <v>#REF!</v>
       </c>
       <c r="R37" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="S37" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="T37" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>62770</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38">
-        <v>62770.01</v>
+        <v>62770.010999999999</v>
       </c>
       <c r="D38" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="E38" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="F38">
-        <v>160051</v>
+        <v>160035</v>
       </c>
       <c r="G38">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K38">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="L38">
         <f t="shared" si="3"/>
-        <v>4.4660000000000002</v>
+        <v>5</v>
       </c>
       <c r="M38">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38">
-        <f>AVERAGE(G36:K39)</f>
-        <v>4.4995000000000003</v>
+        <f>AVERAGE(G38:K41)</f>
+        <v>4.9670000000000005</v>
       </c>
       <c r="O38">
         <f t="shared" si="5"/>
-        <v>0.99255472830313995</v>
-      </c>
-      <c r="P38" s="1">
-        <f>IF(O38&gt;0.95,MAX(1,IF(O38&gt;P2,P2,O38)),IF(O38&lt;P1,P1,O38))</f>
-        <v>1</v>
-      </c>
-      <c r="Q38" s="1">
-        <f>MIN(Q2,MAX(Q1,O38))</f>
-        <v>0.99255472830313995</v>
+        <v>1.0066438494060801</v>
+      </c>
+      <c r="P38" s="1" t="e">
+        <f>IF(O38&gt;0.95,MAX(1,IF(O38&gt;#REF!,#REF!,O38)),IF(O38&lt;#REF!,#REF!,O38))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q38" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O38))</f>
+        <v>#REF!</v>
       </c>
       <c r="R38" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="S38" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="T38" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>62770</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39">
-        <v>62770.01</v>
+        <v>62770.010999999999</v>
       </c>
       <c r="D39" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="E39" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="F39">
-        <v>160089</v>
+        <v>161043</v>
       </c>
       <c r="G39">
-        <v>4.33</v>
+        <v>4.67</v>
       </c>
       <c r="H39">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K39">
         <v>4.67</v>
       </c>
       <c r="L39">
         <f t="shared" si="3"/>
-        <v>4.3339999999999996</v>
+        <v>4.8680000000000003</v>
       </c>
       <c r="M39">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39">
-        <f>AVERAGE(G36:K39)</f>
-        <v>4.4995000000000003</v>
+        <f>AVERAGE(G38:K41)</f>
+        <v>4.9670000000000005</v>
       </c>
       <c r="O39">
         <f t="shared" si="5"/>
-        <v>0.96321813534836997</v>
-      </c>
-      <c r="P39" s="1">
-        <f>IF(O39&gt;0.95,MAX(1,IF(O39&gt;P2,P2,O39)),IF(O39&lt;P1,P1,O39))</f>
-        <v>1</v>
-      </c>
-      <c r="Q39" s="1">
-        <f>MIN(Q2,MAX(Q1,O39))</f>
-        <v>0.96321813534836997</v>
+        <v>0.98006845178175961</v>
+      </c>
+      <c r="P39" s="1" t="e">
+        <f>IF(O39&gt;0.95,MAX(1,IF(O39&gt;#REF!,#REF!,O39)),IF(O39&lt;#REF!,#REF!,O39))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q39" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O39))</f>
+        <v>#REF!</v>
       </c>
       <c r="R39" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="S39" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="T39" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>62770</v>
       </c>
@@ -46581,13 +46686,13 @@
         <v>62770.010999999999</v>
       </c>
       <c r="D40" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="E40" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="F40">
-        <v>160035</v>
+        <v>160112</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -46613,32 +46718,32 @@
         <v>5</v>
       </c>
       <c r="N40">
-        <f>AVERAGE(G40:K43)</f>
-        <v>4.9669999999999996</v>
+        <f>AVERAGE(G38:K41)</f>
+        <v>4.9670000000000005</v>
       </c>
       <c r="O40">
         <f t="shared" si="5"/>
-        <v>1.0066438494061001</v>
-      </c>
-      <c r="P40" s="1">
-        <f>IF(O40&gt;0.95,MAX(1,IF(O40&gt;P2,P2,O40)),IF(O40&lt;P1,P1,O40))</f>
-        <v>1.0066438494061001</v>
-      </c>
-      <c r="Q40" s="1">
-        <f>MIN(Q2,MAX(Q1,O40))</f>
-        <v>1.0066438494061001</v>
+        <v>1.0066438494060801</v>
+      </c>
+      <c r="P40" s="1" t="e">
+        <f>IF(O40&gt;0.95,MAX(1,IF(O40&gt;#REF!,#REF!,O40)),IF(O40&lt;#REF!,#REF!,O40))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q40" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O40))</f>
+        <v>#REF!</v>
       </c>
       <c r="R40" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="S40" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="T40" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>62770</v>
       </c>
@@ -46649,16 +46754,16 @@
         <v>62770.010999999999</v>
       </c>
       <c r="D41" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="E41" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="F41">
-        <v>161043</v>
+        <v>160028</v>
       </c>
       <c r="G41">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -46670,128 +46775,80 @@
         <v>5</v>
       </c>
       <c r="K41">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="L41">
         <f t="shared" si="3"/>
-        <v>4.8680000000000003</v>
+        <v>5</v>
       </c>
       <c r="M41">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="N41">
-        <f>AVERAGE(G40:K43)</f>
-        <v>4.9669999999999996</v>
+        <f>AVERAGE(G38:K41)</f>
+        <v>4.9670000000000005</v>
       </c>
       <c r="O41">
         <f t="shared" si="5"/>
-        <v>0.98006845178176005</v>
-      </c>
-      <c r="P41" s="1">
-        <f>IF(O41&gt;0.95,MAX(1,IF(O41&gt;P2,P2,O41)),IF(O41&lt;P1,P1,O41))</f>
-        <v>1</v>
-      </c>
-      <c r="Q41" s="1">
-        <f>MIN(Q2,MAX(Q1,O41))</f>
-        <v>0.98006845178176005</v>
+        <v>1.0066438494060801</v>
+      </c>
+      <c r="P41" s="1" t="e">
+        <f>IF(O41&gt;0.95,MAX(1,IF(O41&gt;#REF!,#REF!,O41)),IF(O41&lt;#REF!,#REF!,O41))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q41" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O41))</f>
+        <v>#REF!</v>
       </c>
       <c r="R41" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="S41" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="T41" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>62770</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42">
-        <v>62770.010999999999</v>
+        <v>62770.012000000002</v>
       </c>
       <c r="D42" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="E42" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="F42">
-        <v>160112</v>
-      </c>
-      <c r="G42">
-        <v>5</v>
-      </c>
-      <c r="H42">
-        <v>5</v>
-      </c>
-      <c r="I42">
-        <v>5</v>
-      </c>
-      <c r="J42">
-        <v>5</v>
-      </c>
-      <c r="K42">
-        <v>5</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="N42">
-        <f>AVERAGE(G40:K43)</f>
-        <v>4.9669999999999996</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="5"/>
-        <v>1.0066438494061001</v>
-      </c>
-      <c r="P42" s="1">
-        <f>IF(O42&gt;0.95,MAX(1,IF(O42&gt;P2,P2,O42)),IF(O42&lt;P1,P1,O42))</f>
-        <v>1.0066438494061001</v>
-      </c>
-      <c r="Q42" s="1">
-        <f>MIN(Q2,MAX(Q1,O42))</f>
-        <v>1.0066438494061001</v>
-      </c>
-      <c r="R42" t="s">
-        <v>452</v>
-      </c>
-      <c r="S42" t="s">
-        <v>451</v>
-      </c>
-      <c r="T42" t="s">
-        <v>450</v>
+        <v>160077</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>62770</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>62770.010999999999</v>
+        <v>62770.012999999999</v>
       </c>
       <c r="D43" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="E43" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="F43">
-        <v>160028</v>
+        <v>160036</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -46809,60 +46866,102 @@
         <v>5</v>
       </c>
       <c r="L43">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L43:L49" si="6">AVERAGE(G43:K43)</f>
         <v>5</v>
       </c>
       <c r="M43">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M43:M49" si="7">ROUND(AVERAGE(G43:K43),0)</f>
         <v>5</v>
       </c>
       <c r="N43">
-        <f>AVERAGE(G40:K43)</f>
-        <v>4.9669999999999996</v>
+        <f>AVERAGE(G43:K45)</f>
+        <v>5</v>
       </c>
       <c r="O43">
-        <f t="shared" si="5"/>
-        <v>1.0066438494061001</v>
-      </c>
-      <c r="P43" s="1">
-        <f>IF(O43&gt;0.95,MAX(1,IF(O43&gt;P2,P2,O43)),IF(O43&lt;P1,P1,O43))</f>
-        <v>1.0066438494061001</v>
-      </c>
-      <c r="Q43" s="1">
-        <f>MIN(Q2,MAX(Q1,O43))</f>
-        <v>1.0066438494061001</v>
+        <f t="shared" ref="O43:O49" si="8">L43/N43</f>
+        <v>1</v>
+      </c>
+      <c r="P43" s="1" t="e">
+        <f>IF(O43&gt;0.95,MAX(1,IF(O43&gt;#REF!,#REF!,O43)),IF(O43&lt;#REF!,#REF!,O43))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q43" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O43))</f>
+        <v>#REF!</v>
       </c>
       <c r="R43" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="S43" t="s">
-        <v>459</v>
-      </c>
-      <c r="T43" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>62770</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44">
-        <v>62770.012000000002</v>
+        <v>62770.012999999999</v>
       </c>
       <c r="D44" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="E44" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="F44">
-        <v>160077</v>
+        <v>160084</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <f>AVERAGE(G43:K45)</f>
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P44" s="1" t="e">
+        <f>IF(O44&gt;0.95,MAX(1,IF(O44&gt;#REF!,#REF!,O44)),IF(O44&lt;#REF!,#REF!,O44))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q44" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O44))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R44" t="s">
+        <v>480</v>
+      </c>
+      <c r="S44" t="s">
+        <v>481</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>62770</v>
       </c>
@@ -46873,13 +46972,13 @@
         <v>62770.012999999999</v>
       </c>
       <c r="D45" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="E45" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="F45">
-        <v>160036</v>
+        <v>160085</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -46897,54 +46996,54 @@
         <v>5</v>
       </c>
       <c r="L45">
-        <f t="shared" ref="L45:L51" si="6">AVERAGE(G45:K45)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="M45">
-        <f t="shared" ref="M45:M51" si="7">ROUND(AVERAGE(G45:K45),0)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="N45">
-        <f>AVERAGE(G45:K47)</f>
+        <f>AVERAGE(G43:K45)</f>
         <v>5</v>
       </c>
       <c r="O45">
-        <f t="shared" ref="O45:O51" si="8">L45/N45</f>
-        <v>1</v>
-      </c>
-      <c r="P45" s="1">
-        <f>IF(O45&gt;0.95,MAX(1,IF(O45&gt;P2,P2,O45)),IF(O45&lt;P1,P1,O45))</f>
-        <v>1</v>
-      </c>
-      <c r="Q45" s="1">
-        <f>MIN(Q2,MAX(Q1,O45))</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P45" s="1" t="e">
+        <f>IF(O45&gt;0.95,MAX(1,IF(O45&gt;#REF!,#REF!,O45)),IF(O45&lt;#REF!,#REF!,O45))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q45" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O45))</f>
+        <v>#REF!</v>
       </c>
       <c r="R45" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="S45" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>62770</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>62770.012999999999</v>
+        <v>62770.014000000003</v>
       </c>
       <c r="D46" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="E46" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="F46">
-        <v>160084</v>
+        <v>160088</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -46970,46 +47069,49 @@
         <v>5</v>
       </c>
       <c r="N46">
-        <f>AVERAGE(G45:K47)</f>
+        <f>AVERAGE(G46:K49)</f>
         <v>5</v>
       </c>
       <c r="O46">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P46" s="1">
-        <f>IF(O46&gt;0.95,MAX(1,IF(O46&gt;P2,P2,O46)),IF(O46&lt;P1,P1,O46))</f>
-        <v>1</v>
-      </c>
-      <c r="Q46" s="1">
-        <f>MIN(Q2,MAX(Q1,O46))</f>
-        <v>1</v>
+      <c r="P46" s="1" t="e">
+        <f>IF(O46&gt;0.95,MAX(1,IF(O46&gt;#REF!,#REF!,O46)),IF(O46&lt;#REF!,#REF!,O46))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q46" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O46))</f>
+        <v>#REF!</v>
       </c>
       <c r="R46" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="S46" t="s">
-        <v>481</v>
+        <v>494</v>
+      </c>
+      <c r="T46" t="s">
+        <v>495</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>62770</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47">
-        <v>62770.012999999999</v>
+        <v>62770.014000000003</v>
       </c>
       <c r="D47" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="E47" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="F47">
-        <v>160085</v>
+        <v>160067</v>
       </c>
       <c r="G47">
         <v>5</v>
@@ -47035,29 +47137,32 @@
         <v>5</v>
       </c>
       <c r="N47">
-        <f>AVERAGE(G45:K47)</f>
+        <f>AVERAGE(G46:K49)</f>
         <v>5</v>
       </c>
       <c r="O47">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P47" s="1">
-        <f>IF(O47&gt;0.95,MAX(1,IF(O47&gt;P2,P2,O47)),IF(O47&lt;P1,P1,O47))</f>
-        <v>1</v>
-      </c>
-      <c r="Q47" s="1">
-        <f>MIN(Q2,MAX(Q1,O47))</f>
-        <v>1</v>
+      <c r="P47" s="1" t="e">
+        <f>IF(O47&gt;0.95,MAX(1,IF(O47&gt;#REF!,#REF!,O47)),IF(O47&lt;#REF!,#REF!,O47))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q47" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O47))</f>
+        <v>#REF!</v>
       </c>
       <c r="R47" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="S47" t="s">
-        <v>487</v>
+        <v>502</v>
+      </c>
+      <c r="T47" t="s">
+        <v>503</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>62770</v>
       </c>
@@ -47068,13 +47173,13 @@
         <v>62770.014000000003</v>
       </c>
       <c r="D48" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="E48" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="F48">
-        <v>160088</v>
+        <v>160080</v>
       </c>
       <c r="G48">
         <v>5</v>
@@ -47100,29 +47205,29 @@
         <v>5</v>
       </c>
       <c r="N48">
-        <f>AVERAGE(G48:K51)</f>
+        <f>AVERAGE(G46:K49)</f>
         <v>5</v>
       </c>
       <c r="O48">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P48" s="1">
-        <f>IF(O48&gt;0.95,MAX(1,IF(O48&gt;P2,P2,O48)),IF(O48&lt;P1,P1,O48))</f>
-        <v>1</v>
-      </c>
-      <c r="Q48" s="1">
-        <f>MIN(Q2,MAX(Q1,O48))</f>
-        <v>1</v>
+      <c r="P48" s="1" t="e">
+        <f>IF(O48&gt;0.95,MAX(1,IF(O48&gt;#REF!,#REF!,O48)),IF(O48&lt;#REF!,#REF!,O48))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q48" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O48))</f>
+        <v>#REF!</v>
       </c>
       <c r="R48" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="S48" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="T48" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -47136,13 +47241,13 @@
         <v>62770.014000000003</v>
       </c>
       <c r="D49" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="E49" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="F49">
-        <v>160067</v>
+        <v>160055</v>
       </c>
       <c r="G49">
         <v>5</v>
@@ -47168,29 +47273,29 @@
         <v>5</v>
       </c>
       <c r="N49">
-        <f>AVERAGE(G48:K51)</f>
+        <f>AVERAGE(G46:K49)</f>
         <v>5</v>
       </c>
       <c r="O49">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P49" s="1">
-        <f>IF(O49&gt;0.95,MAX(1,IF(O49&gt;P2,P2,O49)),IF(O49&lt;P1,P1,O49))</f>
-        <v>1</v>
-      </c>
-      <c r="Q49" s="1">
-        <f>MIN(Q2,MAX(Q1,O49))</f>
-        <v>1</v>
+      <c r="P49" s="1" t="e">
+        <f>IF(O49&gt;0.95,MAX(1,IF(O49&gt;#REF!,#REF!,O49)),IF(O49&lt;#REF!,#REF!,O49))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q49" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O49))</f>
+        <v>#REF!</v>
       </c>
       <c r="R49" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="S49" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="T49" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -47198,67 +47303,19 @@
         <v>62770</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>62770.014000000003</v>
+        <v>62770.014999999999</v>
       </c>
       <c r="D50" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="E50" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="F50">
-        <v>160080</v>
-      </c>
-      <c r="G50">
-        <v>5</v>
-      </c>
-      <c r="H50">
-        <v>5</v>
-      </c>
-      <c r="I50">
-        <v>5</v>
-      </c>
-      <c r="J50">
-        <v>5</v>
-      </c>
-      <c r="K50">
-        <v>5</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="N50">
-        <f>AVERAGE(G48:K51)</f>
-        <v>5</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="P50" s="1">
-        <f>IF(O50&gt;0.95,MAX(1,IF(O50&gt;P2,P2,O50)),IF(O50&lt;P1,P1,O50))</f>
-        <v>1</v>
-      </c>
-      <c r="Q50" s="1">
-        <f>MIN(Q2,MAX(Q1,O50))</f>
-        <v>1</v>
-      </c>
-      <c r="R50" t="s">
-        <v>494</v>
-      </c>
-      <c r="S50" t="s">
-        <v>510</v>
-      </c>
-      <c r="T50" t="s">
-        <v>502</v>
+        <v>160079</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -47266,22 +47323,22 @@
         <v>62770</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51">
-        <v>62770.014000000003</v>
+        <v>62770.014999999999</v>
       </c>
       <c r="D51" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="E51" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="F51">
-        <v>160055</v>
+        <v>160108</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>5</v>
@@ -47296,37 +47353,31 @@
         <v>5</v>
       </c>
       <c r="L51">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f>AVERAGE(G51:K51)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M51">
-        <f t="shared" si="7"/>
+        <f>ROUND(AVERAGE(G51:K51),0)</f>
         <v>5</v>
       </c>
       <c r="N51">
-        <f>AVERAGE(G48:K51)</f>
-        <v>5</v>
+        <f>AVERAGE(G50:K51)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O51">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="P51" s="1">
-        <f>IF(O51&gt;0.95,MAX(1,IF(O51&gt;P2,P2,O51)),IF(O51&lt;P1,P1,O51))</f>
-        <v>1</v>
-      </c>
-      <c r="Q51" s="1">
-        <f>MIN(Q2,MAX(Q1,O51))</f>
-        <v>1</v>
+        <f>L51/N51</f>
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="e">
+        <f>IF(O51&gt;0.95,MAX(1,IF(O51&gt;#REF!,#REF!,O51)),IF(O51&lt;#REF!,#REF!,O51))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q51" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O51))</f>
+        <v>#REF!</v>
       </c>
       <c r="R51" t="s">
-        <v>502</v>
-      </c>
-      <c r="S51" t="s">
-        <v>516</v>
-      </c>
-      <c r="T51" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -47334,19 +47385,64 @@
         <v>62770</v>
       </c>
       <c r="B52">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52">
-        <v>62770.014999999999</v>
+        <v>62770.016000000003</v>
       </c>
       <c r="D52" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="E52" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F52">
-        <v>160079</v>
+        <v>160075</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <f>AVERAGE(G52:K52)</f>
+        <v>5</v>
+      </c>
+      <c r="M52">
+        <f>ROUND(AVERAGE(G52:K52),0)</f>
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <f>AVERAGE(G52:K54)</f>
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <f>L52/N52</f>
+        <v>1</v>
+      </c>
+      <c r="P52" s="1" t="e">
+        <f>IF(O52&gt;0.95,MAX(1,IF(O52&gt;#REF!,#REF!,O52)),IF(O52&lt;#REF!,#REF!,O52))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q52" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O52))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R52" t="s">
+        <v>532</v>
+      </c>
+      <c r="S52" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -47354,22 +47450,22 @@
         <v>62770</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C53">
-        <v>62770.014999999999</v>
+        <v>62770.016000000003</v>
       </c>
       <c r="D53" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="E53" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="F53">
-        <v>160108</v>
+        <v>160050</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -47385,30 +47481,33 @@
       </c>
       <c r="L53">
         <f>AVERAGE(G53:K53)</f>
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="M53">
         <f>ROUND(AVERAGE(G53:K53),0)</f>
         <v>5</v>
       </c>
       <c r="N53">
-        <f>AVERAGE(G52:K53)</f>
-        <v>4.5999999999999996</v>
+        <f>AVERAGE(G52:K54)</f>
+        <v>5</v>
       </c>
       <c r="O53">
         <f>L53/N53</f>
         <v>1</v>
       </c>
-      <c r="P53" s="1">
-        <f>IF(O53&gt;0.95,MAX(1,IF(O53&gt;P2,P2,O53)),IF(O53&lt;P1,P1,O53))</f>
-        <v>1</v>
-      </c>
-      <c r="Q53" s="1">
-        <f>MIN(Q2,MAX(Q1,O53))</f>
-        <v>1</v>
+      <c r="P53" s="1" t="e">
+        <f>IF(O53&gt;0.95,MAX(1,IF(O53&gt;#REF!,#REF!,O53)),IF(O53&lt;#REF!,#REF!,O53))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q53" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O53))</f>
+        <v>#REF!</v>
       </c>
       <c r="R53" t="s">
-        <v>526</v>
+        <v>539</v>
+      </c>
+      <c r="S53" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -47422,13 +47521,13 @@
         <v>62770.016000000003</v>
       </c>
       <c r="D54" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="E54" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="F54">
-        <v>160075</v>
+        <v>160068</v>
       </c>
       <c r="G54">
         <v>5</v>
@@ -47454,26 +47553,26 @@
         <v>5</v>
       </c>
       <c r="N54">
-        <f>AVERAGE(G54:K56)</f>
+        <f>AVERAGE(G52:K54)</f>
         <v>5</v>
       </c>
       <c r="O54">
         <f>L54/N54</f>
         <v>1</v>
       </c>
-      <c r="P54" s="1">
-        <f>IF(O54&gt;0.95,MAX(1,IF(O54&gt;P2,P2,O54)),IF(O54&lt;P1,P1,O54))</f>
-        <v>1</v>
-      </c>
-      <c r="Q54" s="1">
-        <f>MIN(Q2,MAX(Q1,O54))</f>
-        <v>1</v>
+      <c r="P54" s="1" t="e">
+        <f>IF(O54&gt;0.95,MAX(1,IF(O54&gt;#REF!,#REF!,O54)),IF(O54&lt;#REF!,#REF!,O54))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q54" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O54))</f>
+        <v>#REF!</v>
       </c>
       <c r="R54" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="S54" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
@@ -47481,64 +47580,19 @@
         <v>62770</v>
       </c>
       <c r="B55">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>62770.016000000003</v>
+        <v>62770.017</v>
       </c>
       <c r="D55" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="E55" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="F55">
-        <v>160050</v>
-      </c>
-      <c r="G55">
-        <v>5</v>
-      </c>
-      <c r="H55">
-        <v>5</v>
-      </c>
-      <c r="I55">
-        <v>5</v>
-      </c>
-      <c r="J55">
-        <v>5</v>
-      </c>
-      <c r="K55">
-        <v>5</v>
-      </c>
-      <c r="L55">
-        <f>AVERAGE(G55:K55)</f>
-        <v>5</v>
-      </c>
-      <c r="M55">
-        <f>ROUND(AVERAGE(G55:K55),0)</f>
-        <v>5</v>
-      </c>
-      <c r="N55">
-        <f>AVERAGE(G54:K56)</f>
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <f>L55/N55</f>
-        <v>1</v>
-      </c>
-      <c r="P55" s="1">
-        <f>IF(O55&gt;0.95,MAX(1,IF(O55&gt;P2,P2,O55)),IF(O55&lt;P1,P1,O55))</f>
-        <v>1</v>
-      </c>
-      <c r="Q55" s="1">
-        <f>MIN(Q2,MAX(Q1,O55))</f>
-        <v>1</v>
-      </c>
-      <c r="R55" t="s">
-        <v>539</v>
-      </c>
-      <c r="S55" t="s">
-        <v>540</v>
+        <v>160109</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -47546,19 +47600,19 @@
         <v>62770</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>62770.016000000003</v>
+        <v>62770.017999999996</v>
       </c>
       <c r="D56" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="E56" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="F56">
-        <v>160068</v>
+        <v>160063</v>
       </c>
       <c r="G56">
         <v>5</v>
@@ -47576,34 +47630,40 @@
         <v>5</v>
       </c>
       <c r="L56">
-        <f>AVERAGE(G56:K56)</f>
+        <f t="shared" ref="L56:L88" si="9">AVERAGE(G56:K56)</f>
         <v>5</v>
       </c>
       <c r="M56">
-        <f>ROUND(AVERAGE(G56:K56),0)</f>
+        <f t="shared" ref="M56:M88" si="10">ROUND(AVERAGE(G56:K56),0)</f>
         <v>5</v>
       </c>
       <c r="N56">
-        <f>AVERAGE(G54:K56)</f>
+        <f>AVERAGE(G56:K60)</f>
         <v>5</v>
       </c>
       <c r="O56">
-        <f>L56/N56</f>
-        <v>1</v>
-      </c>
-      <c r="P56" s="1">
-        <f>IF(O56&gt;0.95,MAX(1,IF(O56&gt;P2,P2,O56)),IF(O56&lt;P1,P1,O56))</f>
-        <v>1</v>
-      </c>
-      <c r="Q56" s="1">
-        <f>MIN(Q2,MAX(Q1,O56))</f>
-        <v>1</v>
+        <f t="shared" ref="O56:O88" si="11">L56/N56</f>
+        <v>1</v>
+      </c>
+      <c r="P56" s="1" t="e">
+        <f>IF(O56&gt;0.95,MAX(1,IF(O56&gt;#REF!,#REF!,O56)),IF(O56&lt;#REF!,#REF!,O56))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q56" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O56))</f>
+        <v>#REF!</v>
       </c>
       <c r="R56" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="S56" t="s">
-        <v>547</v>
+        <v>560</v>
+      </c>
+      <c r="T56" t="s">
+        <v>562</v>
+      </c>
+      <c r="U56" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
@@ -47611,19 +47671,70 @@
         <v>62770</v>
       </c>
       <c r="B57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C57">
-        <v>62770.017</v>
+        <v>62770.017999999996</v>
       </c>
       <c r="D57" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="E57" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="F57">
-        <v>160109</v>
+        <v>160039</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="N57">
+        <f>AVERAGE(G56:K60)</f>
+        <v>5</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P57" s="1" t="e">
+        <f>IF(O57&gt;0.95,MAX(1,IF(O57&gt;#REF!,#REF!,O57)),IF(O57&lt;#REF!,#REF!,O57))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q57" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O57))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R57" t="s">
+        <v>570</v>
+      </c>
+      <c r="S57" t="s">
+        <v>569</v>
+      </c>
+      <c r="T57" t="s">
+        <v>571</v>
+      </c>
+      <c r="U57" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
@@ -47637,13 +47748,13 @@
         <v>62770.017999999996</v>
       </c>
       <c r="D58" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="E58" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="F58">
-        <v>160063</v>
+        <v>160038</v>
       </c>
       <c r="G58">
         <v>5</v>
@@ -47661,40 +47772,40 @@
         <v>5</v>
       </c>
       <c r="L58">
-        <f t="shared" ref="L58:L90" si="9">AVERAGE(G58:K58)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="M58">
-        <f t="shared" ref="M58:M90" si="10">ROUND(AVERAGE(G58:K58),0)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N58">
-        <f>AVERAGE(G58:K62)</f>
+        <f>AVERAGE(G56:K60)</f>
         <v>5</v>
       </c>
       <c r="O58">
-        <f t="shared" ref="O58:O90" si="11">L58/N58</f>
-        <v>1</v>
-      </c>
-      <c r="P58" s="1">
-        <f>IF(O58&gt;0.95,MAX(1,IF(O58&gt;P2,P2,O58)),IF(O58&lt;P1,P1,O58))</f>
-        <v>1</v>
-      </c>
-      <c r="Q58" s="1">
-        <f>MIN(Q2,MAX(Q1,O58))</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P58" s="1" t="e">
+        <f>IF(O58&gt;0.95,MAX(1,IF(O58&gt;#REF!,#REF!,O58)),IF(O58&lt;#REF!,#REF!,O58))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q58" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O58))</f>
+        <v>#REF!</v>
       </c>
       <c r="R58" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="S58" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="T58" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="U58" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
@@ -47708,13 +47819,13 @@
         <v>62770.017999999996</v>
       </c>
       <c r="D59" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="E59" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="F59">
-        <v>160039</v>
+        <v>160040</v>
       </c>
       <c r="G59">
         <v>5</v>
@@ -47740,32 +47851,32 @@
         <v>5</v>
       </c>
       <c r="N59">
-        <f>AVERAGE(G58:K62)</f>
+        <f>AVERAGE(G56:K60)</f>
         <v>5</v>
       </c>
       <c r="O59">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P59" s="1">
-        <f>IF(O59&gt;0.95,MAX(1,IF(O59&gt;P2,P2,O59)),IF(O59&lt;P1,P1,O59))</f>
-        <v>1</v>
-      </c>
-      <c r="Q59" s="1">
-        <f>MIN(Q2,MAX(Q1,O59))</f>
-        <v>1</v>
+      <c r="P59" s="1" t="e">
+        <f>IF(O59&gt;0.95,MAX(1,IF(O59&gt;#REF!,#REF!,O59)),IF(O59&lt;#REF!,#REF!,O59))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q59" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O59))</f>
+        <v>#REF!</v>
       </c>
       <c r="R59" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="S59" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="T59" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="U59" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
@@ -47779,13 +47890,13 @@
         <v>62770.017999999996</v>
       </c>
       <c r="D60" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="E60" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="F60">
-        <v>160038</v>
+        <v>160105</v>
       </c>
       <c r="G60">
         <v>5</v>
@@ -47811,32 +47922,32 @@
         <v>5</v>
       </c>
       <c r="N60">
-        <f>AVERAGE(G58:K62)</f>
+        <f>AVERAGE(G56:K60)</f>
         <v>5</v>
       </c>
       <c r="O60">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P60" s="1">
-        <f>IF(O60&gt;0.95,MAX(1,IF(O60&gt;P2,P2,O60)),IF(O60&lt;P1,P1,O60))</f>
-        <v>1</v>
-      </c>
-      <c r="Q60" s="1">
-        <f>MIN(Q2,MAX(Q1,O60))</f>
-        <v>1</v>
+      <c r="P60" s="1" t="e">
+        <f>IF(O60&gt;0.95,MAX(1,IF(O60&gt;#REF!,#REF!,O60)),IF(O60&lt;#REF!,#REF!,O60))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q60" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O60))</f>
+        <v>#REF!</v>
       </c>
       <c r="R60" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="S60" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="T60" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="U60" t="s">
-        <v>582</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
@@ -47844,19 +47955,19 @@
         <v>62770</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61">
-        <v>62770.017999999996</v>
+        <v>62770.019</v>
       </c>
       <c r="D61" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="E61" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="F61">
-        <v>160040</v>
+        <v>160041</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -47882,32 +47993,23 @@
         <v>5</v>
       </c>
       <c r="N61">
-        <f>AVERAGE(G58:K62)</f>
+        <f>AVERAGE(G61:K62)</f>
         <v>5</v>
       </c>
       <c r="O61">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P61" s="1">
-        <f>IF(O61&gt;0.95,MAX(1,IF(O61&gt;P2,P2,O61)),IF(O61&lt;P1,P1,O61))</f>
-        <v>1</v>
-      </c>
-      <c r="Q61" s="1">
-        <f>MIN(Q2,MAX(Q1,O61))</f>
-        <v>1</v>
+      <c r="P61" s="1" t="e">
+        <f>IF(O61&gt;0.95,MAX(1,IF(O61&gt;#REF!,#REF!,O61)),IF(O61&lt;#REF!,#REF!,O61))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q61" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O61))</f>
+        <v>#REF!</v>
       </c>
       <c r="R61" t="s">
-        <v>590</v>
-      </c>
-      <c r="S61" t="s">
-        <v>589</v>
-      </c>
-      <c r="T61" t="s">
-        <v>591</v>
-      </c>
-      <c r="U61" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
@@ -47915,19 +48017,19 @@
         <v>62770</v>
       </c>
       <c r="B62">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C62">
-        <v>62770.017999999996</v>
+        <v>62770.019</v>
       </c>
       <c r="D62" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="E62" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="F62">
-        <v>160105</v>
+        <v>160069</v>
       </c>
       <c r="G62">
         <v>5</v>
@@ -47953,32 +48055,23 @@
         <v>5</v>
       </c>
       <c r="N62">
-        <f>AVERAGE(G58:K62)</f>
+        <f>AVERAGE(G61:K62)</f>
         <v>5</v>
       </c>
       <c r="O62">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P62" s="1">
-        <f>IF(O62&gt;0.95,MAX(1,IF(O62&gt;P2,P2,O62)),IF(O62&lt;P1,P1,O62))</f>
-        <v>1</v>
-      </c>
-      <c r="Q62" s="1">
-        <f>MIN(Q2,MAX(Q1,O62))</f>
-        <v>1</v>
+      <c r="P62" s="1" t="e">
+        <f>IF(O62&gt;0.95,MAX(1,IF(O62&gt;#REF!,#REF!,O62)),IF(O62&lt;#REF!,#REF!,O62))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q62" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O62))</f>
+        <v>#REF!</v>
       </c>
       <c r="R62" t="s">
-        <v>600</v>
-      </c>
-      <c r="S62" t="s">
-        <v>598</v>
-      </c>
-      <c r="T62" t="s">
-        <v>599</v>
-      </c>
-      <c r="U62" t="s">
-        <v>209</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
@@ -47986,61 +48079,64 @@
         <v>62770</v>
       </c>
       <c r="B63">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>62770.019</v>
+        <v>62770.02</v>
       </c>
       <c r="D63" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="E63" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="F63">
-        <v>160041</v>
+        <v>160094</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>4.67</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="K63">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="L63">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4.3980000000000006</v>
       </c>
       <c r="M63">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N63">
-        <f>AVERAGE(G63:K64)</f>
-        <v>5</v>
+        <f>AVERAGE(G63:K66)</f>
+        <v>4.4340000000000011</v>
       </c>
       <c r="O63">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="P63" s="1">
-        <f>IF(O63&gt;0.95,MAX(1,IF(O63&gt;P2,P2,O63)),IF(O63&lt;P1,P1,O63))</f>
-        <v>1</v>
-      </c>
-      <c r="Q63" s="1">
-        <f>MIN(Q2,MAX(Q1,O63))</f>
-        <v>1</v>
+        <v>0.9918809201623815</v>
+      </c>
+      <c r="P63" s="1" t="e">
+        <f>IF(O63&gt;0.95,MAX(1,IF(O63&gt;#REF!,#REF!,O63)),IF(O63&lt;#REF!,#REF!,O63))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q63" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O63))</f>
+        <v>#REF!</v>
       </c>
       <c r="R63" t="s">
-        <v>607</v>
+        <v>620</v>
+      </c>
+      <c r="S63" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
@@ -48048,22 +48144,22 @@
         <v>62770</v>
       </c>
       <c r="B64">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C64">
-        <v>62770.019</v>
+        <v>62770.02</v>
       </c>
       <c r="D64" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="E64" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="F64">
-        <v>160069</v>
+        <v>160047</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>4.67</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -48079,30 +48175,36 @@
       </c>
       <c r="L64">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4.9340000000000002</v>
       </c>
       <c r="M64">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N64">
-        <f>AVERAGE(G63:K64)</f>
-        <v>5</v>
+        <f>AVERAGE(G63:K66)</f>
+        <v>4.4340000000000011</v>
       </c>
       <c r="O64">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="P64" s="1">
-        <f>IF(O64&gt;0.95,MAX(1,IF(O64&gt;P2,P2,O64)),IF(O64&lt;P1,P1,O64))</f>
-        <v>1</v>
-      </c>
-      <c r="Q64" s="1">
-        <f>MIN(Q2,MAX(Q1,O64))</f>
-        <v>1</v>
+        <v>1.1127649977446998</v>
+      </c>
+      <c r="P64" s="1" t="e">
+        <f>IF(O64&gt;0.95,MAX(1,IF(O64&gt;#REF!,#REF!,O64)),IF(O64&lt;#REF!,#REF!,O64))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q64" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O64))</f>
+        <v>#REF!</v>
       </c>
       <c r="R64" t="s">
-        <v>613</v>
+        <v>629</v>
+      </c>
+      <c r="S64" t="s">
+        <v>628</v>
+      </c>
+      <c r="T64" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
@@ -48116,58 +48218,58 @@
         <v>62770.02</v>
       </c>
       <c r="D65" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="E65" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="F65">
-        <v>160094</v>
+        <v>160074</v>
       </c>
       <c r="G65">
         <v>4.67</v>
       </c>
       <c r="H65">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="I65">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J65">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K65">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="L65">
         <f t="shared" si="9"/>
-        <v>4.3979999999999997</v>
+        <v>4.9340000000000002</v>
       </c>
       <c r="M65">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <f>AVERAGE(G65:K68)</f>
-        <v>4.4340000000000002</v>
+        <f>AVERAGE(G63:K66)</f>
+        <v>4.4340000000000011</v>
       </c>
       <c r="O65">
         <f t="shared" si="11"/>
-        <v>0.99188092016238005</v>
-      </c>
-      <c r="P65" s="1">
-        <f>IF(O65&gt;0.95,MAX(1,IF(O65&gt;P2,P2,O65)),IF(O65&lt;P1,P1,O65))</f>
-        <v>1</v>
-      </c>
-      <c r="Q65" s="1">
-        <f>MIN(Q2,MAX(Q1,O65))</f>
-        <v>0.99188092016238005</v>
+        <v>1.1127649977446998</v>
+      </c>
+      <c r="P65" s="1" t="e">
+        <f>IF(O65&gt;0.95,MAX(1,IF(O65&gt;#REF!,#REF!,O65)),IF(O65&lt;#REF!,#REF!,O65))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q65" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O65))</f>
+        <v>#REF!</v>
       </c>
       <c r="R65" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="S65" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -48181,61 +48283,61 @@
         <v>62770.02</v>
       </c>
       <c r="D66" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="E66" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="F66">
-        <v>160047</v>
+        <v>160053</v>
       </c>
       <c r="G66">
-        <v>4.67</v>
+        <v>3.67</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>3.67</v>
       </c>
       <c r="I66">
-        <v>5</v>
+        <v>3.67</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>2.67</v>
       </c>
       <c r="K66">
-        <v>5</v>
+        <v>3.67</v>
       </c>
       <c r="L66">
         <f t="shared" si="9"/>
-        <v>4.9340000000000002</v>
+        <v>3.47</v>
       </c>
       <c r="M66">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <f>AVERAGE(G65:K68)</f>
-        <v>4.4340000000000002</v>
+        <f>AVERAGE(G63:K66)</f>
+        <v>4.4340000000000011</v>
       </c>
       <c r="O66">
         <f t="shared" si="11"/>
-        <v>1.1127649977447001</v>
-      </c>
-      <c r="P66" s="1">
-        <f>IF(O66&gt;0.95,MAX(1,IF(O66&gt;P2,P2,O66)),IF(O66&lt;P1,P1,O66))</f>
-        <v>1.05</v>
-      </c>
-      <c r="Q66" s="1">
-        <f>MIN(Q2,MAX(Q1,O66))</f>
-        <v>1.1000000000000001</v>
+        <v>0.78258908434821817</v>
+      </c>
+      <c r="P66" s="1" t="e">
+        <f>IF(O66&gt;0.95,MAX(1,IF(O66&gt;#REF!,#REF!,O66)),IF(O66&lt;#REF!,#REF!,O66))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q66" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O66))</f>
+        <v>#REF!</v>
       </c>
       <c r="R66" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="S66" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="T66" t="s">
-        <v>627</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
@@ -48243,22 +48345,22 @@
         <v>62770</v>
       </c>
       <c r="B67">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C67">
-        <v>62770.02</v>
+        <v>62770.021000000001</v>
       </c>
       <c r="D67" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="E67" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="F67">
-        <v>160074</v>
+        <v>160048</v>
       </c>
       <c r="G67">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H67">
         <v>5</v>
@@ -48274,33 +48376,30 @@
       </c>
       <c r="L67">
         <f t="shared" si="9"/>
-        <v>4.9340000000000002</v>
+        <v>5</v>
       </c>
       <c r="M67">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N67">
-        <f>AVERAGE(G65:K68)</f>
-        <v>4.4340000000000002</v>
+        <f>AVERAGE(G67:K69)</f>
+        <v>5</v>
       </c>
       <c r="O67">
         <f t="shared" si="11"/>
-        <v>1.1127649977447001</v>
-      </c>
-      <c r="P67" s="1">
-        <f>IF(O67&gt;0.95,MAX(1,IF(O67&gt;P2,P2,O67)),IF(O67&lt;P1,P1,O67))</f>
-        <v>1.05</v>
-      </c>
-      <c r="Q67" s="1">
-        <f>MIN(Q2,MAX(Q1,O67))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="P67" s="1" t="e">
+        <f>IF(O67&gt;0.95,MAX(1,IF(O67&gt;#REF!,#REF!,O67)),IF(O67&lt;#REF!,#REF!,O67))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q67" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O67))</f>
+        <v>#REF!</v>
       </c>
       <c r="R67" t="s">
-        <v>636</v>
-      </c>
-      <c r="S67" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -48308,67 +48407,61 @@
         <v>62770</v>
       </c>
       <c r="B68">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C68">
-        <v>62770.02</v>
+        <v>62770.021000000001</v>
       </c>
       <c r="D68" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="E68" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="F68">
-        <v>160053</v>
+        <v>160044</v>
       </c>
       <c r="G68">
-        <v>3.67</v>
+        <v>5</v>
       </c>
       <c r="H68">
-        <v>3.67</v>
+        <v>5</v>
       </c>
       <c r="I68">
-        <v>3.67</v>
+        <v>5</v>
       </c>
       <c r="J68">
-        <v>2.67</v>
+        <v>5</v>
       </c>
       <c r="K68">
-        <v>3.67</v>
+        <v>5</v>
       </c>
       <c r="L68">
         <f t="shared" si="9"/>
-        <v>3.47</v>
+        <v>5</v>
       </c>
       <c r="M68">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N68">
-        <f>AVERAGE(G65:K68)</f>
-        <v>4.4340000000000002</v>
+        <f>AVERAGE(G67:K69)</f>
+        <v>5</v>
       </c>
       <c r="O68">
         <f t="shared" si="11"/>
-        <v>0.78258908434822005</v>
-      </c>
-      <c r="P68" s="1">
-        <f>IF(O68&gt;0.95,MAX(1,IF(O68&gt;P2,P2,O68)),IF(O68&lt;P1,P1,O68))</f>
-        <v>0.78258908434822005</v>
-      </c>
-      <c r="Q68" s="1">
-        <f>MIN(Q2,MAX(Q1,O68))</f>
-        <v>0.78258908434822005</v>
+        <v>1</v>
+      </c>
+      <c r="P68" s="1" t="e">
+        <f>IF(O68&gt;0.95,MAX(1,IF(O68&gt;#REF!,#REF!,O68)),IF(O68&lt;#REF!,#REF!,O68))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q68" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O68))</f>
+        <v>#REF!</v>
       </c>
       <c r="R68" t="s">
-        <v>644</v>
-      </c>
-      <c r="S68" t="s">
-        <v>643</v>
-      </c>
-      <c r="T68" t="s">
-        <v>209</v>
+        <v>656</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -48382,13 +48475,13 @@
         <v>62770.021000000001</v>
       </c>
       <c r="D69" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="E69" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="F69">
-        <v>160048</v>
+        <v>160095</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -48414,23 +48507,26 @@
         <v>5</v>
       </c>
       <c r="N69">
-        <f>AVERAGE(G69:K71)</f>
+        <f>AVERAGE(G67:K69)</f>
         <v>5</v>
       </c>
       <c r="O69">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P69" s="1">
-        <f>IF(O69&gt;0.95,MAX(1,IF(O69&gt;P2,P2,O69)),IF(O69&lt;P1,P1,O69))</f>
-        <v>1</v>
-      </c>
-      <c r="Q69" s="1">
-        <f>MIN(Q2,MAX(Q1,O69))</f>
-        <v>1</v>
+      <c r="P69" s="1" t="e">
+        <f>IF(O69&gt;0.95,MAX(1,IF(O69&gt;#REF!,#REF!,O69)),IF(O69&lt;#REF!,#REF!,O69))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q69" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O69))</f>
+        <v>#REF!</v>
       </c>
       <c r="R69" t="s">
-        <v>650</v>
+        <v>662</v>
+      </c>
+      <c r="S69" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
@@ -48438,61 +48534,61 @@
         <v>62770</v>
       </c>
       <c r="B70">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C70">
-        <v>62770.021000000001</v>
+        <v>62770.021999999997</v>
       </c>
       <c r="D70" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="E70" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="F70">
-        <v>160044</v>
+        <v>160066</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L70">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N70">
-        <f>AVERAGE(G69:K71)</f>
-        <v>5</v>
+        <f>AVERAGE(G70:K71)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O70">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="P70" s="1">
-        <f>IF(O70&gt;0.95,MAX(1,IF(O70&gt;P2,P2,O70)),IF(O70&lt;P1,P1,O70))</f>
-        <v>1</v>
-      </c>
-      <c r="Q70" s="1">
-        <f>MIN(Q2,MAX(Q1,O70))</f>
-        <v>1</v>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="P70" s="1" t="e">
+        <f>IF(O70&gt;0.95,MAX(1,IF(O70&gt;#REF!,#REF!,O70)),IF(O70&lt;#REF!,#REF!,O70))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q70" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O70))</f>
+        <v>#REF!</v>
       </c>
       <c r="R70" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
@@ -48500,25 +48596,25 @@
         <v>62770</v>
       </c>
       <c r="B71">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71">
-        <v>62770.021000000001</v>
+        <v>62770.021999999997</v>
       </c>
       <c r="D71" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="E71" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="F71">
-        <v>160095</v>
+        <v>160107</v>
       </c>
       <c r="G71">
         <v>5</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>5</v>
@@ -48531,33 +48627,30 @@
       </c>
       <c r="L71">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="M71">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N71">
-        <f>AVERAGE(G69:K71)</f>
-        <v>5</v>
+        <f>AVERAGE(G70:K71)</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O71">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="P71" s="1">
-        <f>IF(O71&gt;0.95,MAX(1,IF(O71&gt;P2,P2,O71)),IF(O71&lt;P1,P1,O71))</f>
-        <v>1</v>
-      </c>
-      <c r="Q71" s="1">
-        <f>MIN(Q2,MAX(Q1,O71))</f>
-        <v>1</v>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="P71" s="1" t="e">
+        <f>IF(O71&gt;0.95,MAX(1,IF(O71&gt;#REF!,#REF!,O71)),IF(O71&lt;#REF!,#REF!,O71))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q71" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O71))</f>
+        <v>#REF!</v>
       </c>
       <c r="R71" t="s">
-        <v>662</v>
-      </c>
-      <c r="S71" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
@@ -48565,61 +48658,61 @@
         <v>62770</v>
       </c>
       <c r="B72">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C72">
-        <v>62770.021999999997</v>
+        <v>62770.023000000001</v>
       </c>
       <c r="D72" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="E72" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="F72">
-        <v>160066</v>
+        <v>161041</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H72">
         <v>4</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L72">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="M72">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N72">
         <f>AVERAGE(G72:K73)</f>
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O72">
         <f t="shared" si="11"/>
-        <v>0.90909090909090995</v>
-      </c>
-      <c r="P72" s="1">
-        <f>IF(O72&gt;0.95,MAX(1,IF(O72&gt;P2,P2,O72)),IF(O72&lt;P1,P1,O72))</f>
-        <v>0.90909090909090995</v>
-      </c>
-      <c r="Q72" s="1">
-        <f>MIN(Q2,MAX(Q1,O72))</f>
-        <v>0.90909090909090995</v>
+        <v>0.97959183673469374</v>
+      </c>
+      <c r="P72" s="1" t="e">
+        <f>IF(O72&gt;0.95,MAX(1,IF(O72&gt;#REF!,#REF!,O72)),IF(O72&lt;#REF!,#REF!,O72))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q72" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O72))</f>
+        <v>#REF!</v>
       </c>
       <c r="R72" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -48627,25 +48720,25 @@
         <v>62770</v>
       </c>
       <c r="B73">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C73">
-        <v>62770.021999999997</v>
+        <v>62770.023000000001</v>
       </c>
       <c r="D73" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="E73" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="F73">
-        <v>160107</v>
+        <v>160037</v>
       </c>
       <c r="G73">
         <v>5</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I73">
         <v>5</v>
@@ -48658,7 +48751,7 @@
       </c>
       <c r="L73">
         <f t="shared" si="9"/>
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M73">
         <f t="shared" si="10"/>
@@ -48666,22 +48759,22 @@
       </c>
       <c r="N73">
         <f>AVERAGE(G72:K73)</f>
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O73">
         <f t="shared" si="11"/>
-        <v>1.0909090909090999</v>
-      </c>
-      <c r="P73" s="1">
-        <f>IF(O73&gt;0.95,MAX(1,IF(O73&gt;P2,P2,O73)),IF(O73&lt;P1,P1,O73))</f>
-        <v>1.05</v>
-      </c>
-      <c r="Q73" s="1">
-        <f>MIN(Q2,MAX(Q1,O73))</f>
-        <v>1.0909090909090999</v>
+        <v>1.0204081632653061</v>
+      </c>
+      <c r="P73" s="1" t="e">
+        <f>IF(O73&gt;0.95,MAX(1,IF(O73&gt;#REF!,#REF!,O73)),IF(O73&lt;#REF!,#REF!,O73))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q73" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O73))</f>
+        <v>#REF!</v>
       </c>
       <c r="R73" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
@@ -48689,25 +48782,25 @@
         <v>62770</v>
       </c>
       <c r="B74">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C74">
-        <v>62770.023000000001</v>
+        <v>62770.023999999998</v>
       </c>
       <c r="D74" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="E74" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="F74">
-        <v>161041</v>
+        <v>160033</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I74">
         <v>5</v>
@@ -48720,30 +48813,39 @@
       </c>
       <c r="L74">
         <f t="shared" si="9"/>
-        <v>4.8</v>
+        <v>4.95</v>
       </c>
       <c r="M74">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N74">
-        <f>AVERAGE(G74:K75)</f>
-        <v>4.9000000000000004</v>
+        <f>AVERAGE(G74:K78)</f>
+        <v>4.97</v>
       </c>
       <c r="O74">
         <f t="shared" si="11"/>
-        <v>0.97959183673468997</v>
-      </c>
-      <c r="P74" s="1">
-        <f>IF(O74&gt;0.95,MAX(1,IF(O74&gt;P2,P2,O74)),IF(O74&lt;P1,P1,O74))</f>
-        <v>1</v>
-      </c>
-      <c r="Q74" s="1">
-        <f>MIN(Q2,MAX(Q1,O74))</f>
-        <v>0.97959183673468997</v>
+        <v>0.99597585513078479</v>
+      </c>
+      <c r="P74" s="1" t="e">
+        <f>IF(O74&gt;0.95,MAX(1,IF(O74&gt;#REF!,#REF!,O74)),IF(O74&lt;#REF!,#REF!,O74))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q74" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O74))</f>
+        <v>#REF!</v>
       </c>
       <c r="R74" t="s">
-        <v>680</v>
+        <v>694</v>
+      </c>
+      <c r="S74" t="s">
+        <v>695</v>
+      </c>
+      <c r="T74" t="s">
+        <v>693</v>
+      </c>
+      <c r="U74" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
@@ -48751,22 +48853,22 @@
         <v>62770</v>
       </c>
       <c r="B75">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C75">
-        <v>62770.023000000001</v>
+        <v>62770.023999999998</v>
       </c>
       <c r="D75" t="s">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="E75" t="s">
-        <v>683</v>
+        <v>700</v>
       </c>
       <c r="F75">
-        <v>160037</v>
+        <v>160054</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -48782,30 +48884,39 @@
       </c>
       <c r="L75">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="M75">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N75">
-        <f>AVERAGE(G74:K75)</f>
-        <v>4.9000000000000004</v>
+        <f>AVERAGE(G74:K78)</f>
+        <v>4.97</v>
       </c>
       <c r="O75">
         <f t="shared" si="11"/>
-        <v>1.0204081632652999</v>
-      </c>
-      <c r="P75" s="1">
-        <f>IF(O75&gt;0.95,MAX(1,IF(O75&gt;P2,P2,O75)),IF(O75&lt;P1,P1,O75))</f>
-        <v>1.0204081632652999</v>
-      </c>
-      <c r="Q75" s="1">
-        <f>MIN(Q2,MAX(Q1,O75))</f>
-        <v>1.0204081632652999</v>
+        <v>0.99597585513078479</v>
+      </c>
+      <c r="P75" s="1" t="e">
+        <f>IF(O75&gt;0.95,MAX(1,IF(O75&gt;#REF!,#REF!,O75)),IF(O75&lt;#REF!,#REF!,O75))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q75" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O75))</f>
+        <v>#REF!</v>
       </c>
       <c r="R75" t="s">
-        <v>686</v>
+        <v>703</v>
+      </c>
+      <c r="S75" t="s">
+        <v>704</v>
+      </c>
+      <c r="T75" t="s">
+        <v>694</v>
+      </c>
+      <c r="U75" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
@@ -48819,16 +48930,16 @@
         <v>62770.023999999998</v>
       </c>
       <c r="D76" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="E76" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="F76">
-        <v>160033</v>
+        <v>160032</v>
       </c>
       <c r="G76">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H76">
         <v>5</v>
@@ -48844,39 +48955,39 @@
       </c>
       <c r="L76">
         <f t="shared" si="9"/>
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="M76">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N76">
-        <f>AVERAGE(G76:K80)</f>
+        <f>AVERAGE(G74:K78)</f>
         <v>4.97</v>
       </c>
       <c r="O76">
         <f t="shared" si="11"/>
-        <v>0.99597585513078002</v>
-      </c>
-      <c r="P76" s="1">
-        <f>IF(O76&gt;0.95,MAX(1,IF(O76&gt;P2,P2,O76)),IF(O76&lt;P1,P1,O76))</f>
-        <v>1</v>
-      </c>
-      <c r="Q76" s="1">
-        <f>MIN(Q2,MAX(Q1,O76))</f>
-        <v>0.99597585513078002</v>
+        <v>1.0060362173038231</v>
+      </c>
+      <c r="P76" s="1" t="e">
+        <f>IF(O76&gt;0.95,MAX(1,IF(O76&gt;#REF!,#REF!,O76)),IF(O76&lt;#REF!,#REF!,O76))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q76" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O76))</f>
+        <v>#REF!</v>
       </c>
       <c r="R76" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="S76" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="T76" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
       <c r="U76" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
@@ -48890,13 +49001,13 @@
         <v>62770.023999999998</v>
       </c>
       <c r="D77" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="E77" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="F77">
-        <v>160054</v>
+        <v>160030</v>
       </c>
       <c r="G77">
         <v>4.75</v>
@@ -48922,32 +49033,32 @@
         <v>5</v>
       </c>
       <c r="N77">
-        <f>AVERAGE(G76:K80)</f>
+        <f>AVERAGE(G74:K78)</f>
         <v>4.97</v>
       </c>
       <c r="O77">
         <f t="shared" si="11"/>
-        <v>0.99597585513078002</v>
-      </c>
-      <c r="P77" s="1">
-        <f>IF(O77&gt;0.95,MAX(1,IF(O77&gt;P2,P2,O77)),IF(O77&lt;P1,P1,O77))</f>
-        <v>1</v>
-      </c>
-      <c r="Q77" s="1">
-        <f>MIN(Q2,MAX(Q1,O77))</f>
-        <v>0.99597585513078002</v>
+        <v>0.99597585513078479</v>
+      </c>
+      <c r="P77" s="1" t="e">
+        <f>IF(O77&gt;0.95,MAX(1,IF(O77&gt;#REF!,#REF!,O77)),IF(O77&lt;#REF!,#REF!,O77))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q77" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O77))</f>
+        <v>#REF!</v>
       </c>
       <c r="R77" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="S77" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="T77" t="s">
+        <v>723</v>
+      </c>
+      <c r="U77" t="s">
         <v>694</v>
-      </c>
-      <c r="U77" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
@@ -48961,13 +49072,13 @@
         <v>62770.023999999998</v>
       </c>
       <c r="D78" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="E78" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="F78">
-        <v>160032</v>
+        <v>160029</v>
       </c>
       <c r="G78">
         <v>5</v>
@@ -48993,32 +49104,32 @@
         <v>5</v>
       </c>
       <c r="N78">
-        <f>AVERAGE(G76:K80)</f>
+        <f>AVERAGE(G74:K78)</f>
         <v>4.97</v>
       </c>
       <c r="O78">
         <f t="shared" si="11"/>
-        <v>1.0060362173038</v>
-      </c>
-      <c r="P78" s="1">
-        <f>IF(O78&gt;0.95,MAX(1,IF(O78&gt;P2,P2,O78)),IF(O78&lt;P1,P1,O78))</f>
-        <v>1.0060362173038</v>
-      </c>
-      <c r="Q78" s="1">
-        <f>MIN(Q2,MAX(Q1,O78))</f>
-        <v>1.0060362173038</v>
+        <v>1.0060362173038231</v>
+      </c>
+      <c r="P78" s="1" t="e">
+        <f>IF(O78&gt;0.95,MAX(1,IF(O78&gt;#REF!,#REF!,O78)),IF(O78&lt;#REF!,#REF!,O78))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q78" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O78))</f>
+        <v>#REF!</v>
       </c>
       <c r="R78" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="S78" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="T78" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="U78" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
@@ -49026,70 +49137,64 @@
         <v>62770</v>
       </c>
       <c r="B79">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C79">
-        <v>62770.023999999998</v>
+        <v>62770.025000000001</v>
       </c>
       <c r="D79" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="E79" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="F79">
-        <v>160030</v>
+        <v>161042</v>
       </c>
       <c r="G79">
-        <v>4.75</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <f t="shared" si="9"/>
-        <v>4.95</v>
+        <v>0</v>
       </c>
       <c r="M79">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <f>AVERAGE(G76:K80)</f>
-        <v>4.97</v>
+        <f>AVERAGE(G79:K81)</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O79">
         <f t="shared" si="11"/>
-        <v>0.99597585513078002</v>
-      </c>
-      <c r="P79" s="1">
-        <f>IF(O79&gt;0.95,MAX(1,IF(O79&gt;P2,P2,O79)),IF(O79&lt;P1,P1,O79))</f>
-        <v>1</v>
-      </c>
-      <c r="Q79" s="1">
-        <f>MIN(Q2,MAX(Q1,O79))</f>
-        <v>0.99597585513078002</v>
+        <v>0</v>
+      </c>
+      <c r="P79" s="1" t="e">
+        <f>IF(O79&gt;0.95,MAX(1,IF(O79&gt;#REF!,#REF!,O79)),IF(O79&lt;#REF!,#REF!,O79))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q79" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O79))</f>
+        <v>#REF!</v>
       </c>
       <c r="R79" t="s">
-        <v>724</v>
+        <v>209</v>
       </c>
       <c r="S79" t="s">
-        <v>722</v>
-      </c>
-      <c r="T79" t="s">
-        <v>723</v>
-      </c>
-      <c r="U79" t="s">
-        <v>694</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
@@ -49097,19 +49202,19 @@
         <v>62770</v>
       </c>
       <c r="B80">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C80">
-        <v>62770.023999999998</v>
+        <v>62770.025000000001</v>
       </c>
       <c r="D80" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="E80" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="F80">
-        <v>160029</v>
+        <v>160065</v>
       </c>
       <c r="G80">
         <v>5</v>
@@ -49135,32 +49240,26 @@
         <v>5</v>
       </c>
       <c r="N80">
-        <f>AVERAGE(G76:K80)</f>
-        <v>4.97</v>
+        <f>AVERAGE(G79:K81)</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O80">
         <f t="shared" si="11"/>
-        <v>1.0060362173038</v>
-      </c>
-      <c r="P80" s="1">
-        <f>IF(O80&gt;0.95,MAX(1,IF(O80&gt;P2,P2,O80)),IF(O80&lt;P1,P1,O80))</f>
-        <v>1.0060362173038</v>
-      </c>
-      <c r="Q80" s="1">
-        <f>MIN(Q2,MAX(Q1,O80))</f>
-        <v>1.0060362173038</v>
+        <v>1.5</v>
+      </c>
+      <c r="P80" s="1" t="e">
+        <f>IF(O80&gt;0.95,MAX(1,IF(O80&gt;#REF!,#REF!,O80)),IF(O80&lt;#REF!,#REF!,O80))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q80" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O80))</f>
+        <v>#REF!</v>
       </c>
       <c r="R80" t="s">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="S80" t="s">
-        <v>731</v>
-      </c>
-      <c r="T80" t="s">
-        <v>733</v>
-      </c>
-      <c r="U80" t="s">
-        <v>732</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
@@ -49174,55 +49273,55 @@
         <v>62770.025000000001</v>
       </c>
       <c r="D81" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="E81" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="F81">
-        <v>161042</v>
+        <v>160090</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L81">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M81">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N81">
-        <f>AVERAGE(G81:K83)</f>
-        <v>3.3333333333333002</v>
+        <f>AVERAGE(G79:K81)</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O81">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P81" s="1">
-        <f>IF(O81&gt;0.95,MAX(1,IF(O81&gt;P2,P2,O81)),IF(O81&lt;P1,P1,O81))</f>
-        <v>0.6</v>
-      </c>
-      <c r="Q81" s="1">
-        <f>MIN(Q2,MAX(Q1,O81))</f>
-        <v>0.6</v>
+        <v>1.5</v>
+      </c>
+      <c r="P81" s="1" t="e">
+        <f>IF(O81&gt;0.95,MAX(1,IF(O81&gt;#REF!,#REF!,O81)),IF(O81&lt;#REF!,#REF!,O81))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q81" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O81))</f>
+        <v>#REF!</v>
       </c>
       <c r="R81" t="s">
-        <v>209</v>
+        <v>749</v>
       </c>
       <c r="S81" t="s">
         <v>209</v>
@@ -49233,19 +49332,19 @@
         <v>62770</v>
       </c>
       <c r="B82">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C82">
-        <v>62770.025000000001</v>
+        <v>62770.025999999998</v>
       </c>
       <c r="D82" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="E82" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="F82">
-        <v>160065</v>
+        <v>160076</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -49271,26 +49370,26 @@
         <v>5</v>
       </c>
       <c r="N82">
-        <f>AVERAGE(G81:K83)</f>
-        <v>3.3333333333333002</v>
+        <f>AVERAGE(G82:K85)</f>
+        <v>5</v>
       </c>
       <c r="O82">
         <f t="shared" si="11"/>
-        <v>1.5</v>
-      </c>
-      <c r="P82" s="1">
-        <f>IF(O82&gt;0.95,MAX(1,IF(O82&gt;P2,P2,O82)),IF(O82&lt;P1,P1,O82))</f>
-        <v>1.05</v>
-      </c>
-      <c r="Q82" s="1">
-        <f>MIN(Q2,MAX(Q1,O82))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="P82" s="1" t="e">
+        <f>IF(O82&gt;0.95,MAX(1,IF(O82&gt;#REF!,#REF!,O82)),IF(O82&lt;#REF!,#REF!,O82))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q82" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O82))</f>
+        <v>#REF!</v>
       </c>
       <c r="R82" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="S82" t="s">
-        <v>209</v>
+        <v>822</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
@@ -49298,19 +49397,19 @@
         <v>62770</v>
       </c>
       <c r="B83">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C83">
-        <v>62770.025000000001</v>
+        <v>62770.025999999998</v>
       </c>
       <c r="D83" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="E83" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="F83">
-        <v>160090</v>
+        <v>160061</v>
       </c>
       <c r="G83">
         <v>5</v>
@@ -49336,26 +49435,26 @@
         <v>5</v>
       </c>
       <c r="N83">
-        <f>AVERAGE(G81:K83)</f>
-        <v>3.3333333333333002</v>
+        <f>AVERAGE(G82:K85)</f>
+        <v>5</v>
       </c>
       <c r="O83">
         <f t="shared" si="11"/>
-        <v>1.5</v>
-      </c>
-      <c r="P83" s="1">
-        <f>IF(O83&gt;0.95,MAX(1,IF(O83&gt;P2,P2,O83)),IF(O83&lt;P1,P1,O83))</f>
-        <v>1.05</v>
-      </c>
-      <c r="Q83" s="1">
-        <f>MIN(Q2,MAX(Q1,O83))</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="P83" s="1" t="e">
+        <f>IF(O83&gt;0.95,MAX(1,IF(O83&gt;#REF!,#REF!,O83)),IF(O83&lt;#REF!,#REF!,O83))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q83" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O83))</f>
+        <v>#REF!</v>
       </c>
       <c r="R83" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="S83" t="s">
-        <v>209</v>
+        <v>763</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
@@ -49369,13 +49468,13 @@
         <v>62770.025999999998</v>
       </c>
       <c r="D84" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="E84" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="F84">
-        <v>160076</v>
+        <v>160100</v>
       </c>
       <c r="G84">
         <v>5</v>
@@ -49401,26 +49500,26 @@
         <v>5</v>
       </c>
       <c r="N84">
-        <f>AVERAGE(G84:K87)</f>
+        <f>AVERAGE(G82:K85)</f>
         <v>5</v>
       </c>
       <c r="O84">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P84" s="1">
-        <f>IF(O84&gt;0.95,MAX(1,IF(O84&gt;P2,P2,O84)),IF(O84&lt;P1,P1,O84))</f>
-        <v>1</v>
-      </c>
-      <c r="Q84" s="1">
-        <f>MIN(Q2,MAX(Q1,O84))</f>
-        <v>1</v>
+      <c r="P84" s="1" t="e">
+        <f>IF(O84&gt;0.95,MAX(1,IF(O84&gt;#REF!,#REF!,O84)),IF(O84&lt;#REF!,#REF!,O84))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q84" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O84))</f>
+        <v>#REF!</v>
       </c>
       <c r="R84" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="S84" t="s">
-        <v>824</v>
+        <v>768</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
@@ -49434,13 +49533,13 @@
         <v>62770.025999999998</v>
       </c>
       <c r="D85" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="E85" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="F85">
-        <v>160061</v>
+        <v>160064</v>
       </c>
       <c r="G85">
         <v>5</v>
@@ -49466,26 +49565,29 @@
         <v>5</v>
       </c>
       <c r="N85">
-        <f>AVERAGE(G84:K87)</f>
+        <f>AVERAGE(G82:K85)</f>
         <v>5</v>
       </c>
       <c r="O85">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P85" s="1">
-        <f>IF(O85&gt;0.95,MAX(1,IF(O85&gt;P2,P2,O85)),IF(O85&lt;P1,P1,O85))</f>
-        <v>1</v>
-      </c>
-      <c r="Q85" s="1">
-        <f>MIN(Q2,MAX(Q1,O85))</f>
-        <v>1</v>
+      <c r="P85" s="1" t="e">
+        <f>IF(O85&gt;0.95,MAX(1,IF(O85&gt;#REF!,#REF!,O85)),IF(O85&lt;#REF!,#REF!,O85))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q85" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O85))</f>
+        <v>#REF!</v>
       </c>
       <c r="R85" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="S85" t="s">
-        <v>763</v>
+        <v>776</v>
+      </c>
+      <c r="T85" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
@@ -49493,64 +49595,61 @@
         <v>62770</v>
       </c>
       <c r="B86">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C86">
-        <v>62770.025999999998</v>
+        <v>62770.027000000002</v>
       </c>
       <c r="D86" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="E86" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="F86">
-        <v>160100</v>
+        <v>160093</v>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L86">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M86">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N86">
-        <f>AVERAGE(G84:K87)</f>
-        <v>5</v>
+        <f>AVERAGE(G86:K88)</f>
+        <v>4</v>
       </c>
       <c r="O86">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="P86" s="1">
-        <f>IF(O86&gt;0.95,MAX(1,IF(O86&gt;P2,P2,O86)),IF(O86&lt;P1,P1,O86))</f>
-        <v>1</v>
-      </c>
-      <c r="Q86" s="1">
-        <f>MIN(Q2,MAX(Q1,O86))</f>
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="P86" s="1" t="e">
+        <f>IF(O86&gt;0.95,MAX(1,IF(O86&gt;#REF!,#REF!,O86)),IF(O86&lt;#REF!,#REF!,O86))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q86" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O86))</f>
+        <v>#REF!</v>
       </c>
       <c r="R86" t="s">
-        <v>769</v>
-      </c>
-      <c r="S86" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
@@ -49558,67 +49657,64 @@
         <v>62770</v>
       </c>
       <c r="B87">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C87">
-        <v>62770.025999999998</v>
+        <v>62770.027000000002</v>
       </c>
       <c r="D87" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="E87" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="F87">
-        <v>160064</v>
+        <v>160110</v>
       </c>
       <c r="G87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L87">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M87">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N87">
-        <f>AVERAGE(G84:K87)</f>
-        <v>5</v>
+        <f>AVERAGE(G86:K88)</f>
+        <v>4</v>
       </c>
       <c r="O87">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P87" s="1">
-        <f>IF(O87&gt;0.95,MAX(1,IF(O87&gt;P2,P2,O87)),IF(O87&lt;P1,P1,O87))</f>
-        <v>1</v>
-      </c>
-      <c r="Q87" s="1">
-        <f>MIN(Q2,MAX(Q1,O87))</f>
-        <v>1</v>
+      <c r="P87" s="1" t="e">
+        <f>IF(O87&gt;0.95,MAX(1,IF(O87&gt;#REF!,#REF!,O87)),IF(O87&lt;#REF!,#REF!,O87))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q87" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O87))</f>
+        <v>#REF!</v>
       </c>
       <c r="R87" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="S87" t="s">
-        <v>776</v>
-      </c>
-      <c r="T87" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
@@ -49632,55 +49728,55 @@
         <v>62770.027000000002</v>
       </c>
       <c r="D88" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="E88" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="F88">
-        <v>160093</v>
+        <v>160046</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L88">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M88">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N88">
-        <f>AVERAGE(G88:K90)</f>
+        <f>AVERAGE(G86:K88)</f>
         <v>4</v>
       </c>
       <c r="O88">
         <f t="shared" si="11"/>
-        <v>0.75</v>
-      </c>
-      <c r="P88" s="1">
-        <f>IF(O88&gt;0.95,MAX(1,IF(O88&gt;P2,P2,O88)),IF(O88&lt;P1,P1,O88))</f>
-        <v>0.75</v>
-      </c>
-      <c r="Q88" s="1">
-        <f>MIN(Q2,MAX(Q1,O88))</f>
-        <v>0.75</v>
+        <v>1.25</v>
+      </c>
+      <c r="P88" s="1" t="e">
+        <f>IF(O88&gt;0.95,MAX(1,IF(O88&gt;#REF!,#REF!,O88)),IF(O88&lt;#REF!,#REF!,O88))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q88" s="1" t="e">
+        <f>MIN(#REF!,MAX(#REF!,O88))</f>
+        <v>#REF!</v>
       </c>
       <c r="R88" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
@@ -49688,64 +49784,19 @@
         <v>62770</v>
       </c>
       <c r="B89">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C89">
-        <v>62770.027000000002</v>
+        <v>62770.027999999998</v>
       </c>
       <c r="D89" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="E89" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="F89">
-        <v>160110</v>
-      </c>
-      <c r="G89">
-        <v>4</v>
-      </c>
-      <c r="H89">
-        <v>4</v>
-      </c>
-      <c r="I89">
-        <v>4</v>
-      </c>
-      <c r="J89">
-        <v>4</v>
-      </c>
-      <c r="K89">
-        <v>4</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="N89">
-        <f>AVERAGE(G88:K90)</f>
-        <v>4</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="P89" s="1">
-        <f>IF(O89&gt;0.95,MAX(1,IF(O89&gt;P2,P2,O89)),IF(O89&lt;P1,P1,O89))</f>
-        <v>1</v>
-      </c>
-      <c r="Q89" s="1">
-        <f>MIN(Q2,MAX(Q1,O89))</f>
-        <v>1</v>
-      </c>
-      <c r="R89" t="s">
-        <v>787</v>
-      </c>
-      <c r="S89" t="s">
-        <v>786</v>
+        <v>160062</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
@@ -49753,100 +49804,18 @@
         <v>62770</v>
       </c>
       <c r="B90">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C90">
-        <v>62770.027000000002</v>
+        <v>62770.029000000002</v>
       </c>
       <c r="D90" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="E90" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="F90">
-        <v>160046</v>
-      </c>
-      <c r="G90">
-        <v>5</v>
-      </c>
-      <c r="H90">
-        <v>5</v>
-      </c>
-      <c r="I90">
-        <v>5</v>
-      </c>
-      <c r="J90">
-        <v>5</v>
-      </c>
-      <c r="K90">
-        <v>5</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="N90">
-        <f>AVERAGE(G88:K90)</f>
-        <v>4</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="11"/>
-        <v>1.25</v>
-      </c>
-      <c r="P90" s="1">
-        <f>IF(O90&gt;0.95,MAX(1,IF(O90&gt;P2,P2,O90)),IF(O90&lt;P1,P1,O90))</f>
-        <v>1.05</v>
-      </c>
-      <c r="Q90" s="1">
-        <f>MIN(Q2,MAX(Q1,O90))</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R90" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>62770</v>
-      </c>
-      <c r="B91">
-        <v>29</v>
-      </c>
-      <c r="C91">
-        <v>62770.027999999998</v>
-      </c>
-      <c r="D91" t="s">
-        <v>795</v>
-      </c>
-      <c r="E91" t="s">
-        <v>796</v>
-      </c>
-      <c r="F91">
-        <v>160062</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>62770</v>
-      </c>
-      <c r="B92">
-        <v>30</v>
-      </c>
-      <c r="C92">
-        <v>62770.029000000002</v>
-      </c>
-      <c r="D92" t="s">
-        <v>800</v>
-      </c>
-      <c r="E92" t="s">
-        <v>801</v>
-      </c>
-      <c r="F92">
         <v>160078</v>
       </c>
     </row>
@@ -49861,7 +49830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -49889,31 +49858,31 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F1" t="s">
         <v>825</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>826</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>827</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>828</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>829</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>830</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>831</v>
-      </c>
-      <c r="K1" t="s">
-        <v>832</v>
-      </c>
-      <c r="L1" t="s">
-        <v>833</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
